--- a/data/ten_journals/combined/ten_journals_fulltext_screening_and_data_extraction_combined_conflict_resolving.xlsx
+++ b/data/ten_journals/combined/ten_journals_fulltext_screening_and_data_extraction_combined_conflict_resolving.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3023" uniqueCount="1246">
   <si>
     <t>studyID</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>to examine consistency in individuals’ social foraging strategies, we calculated intraclass correlation coefficients (ICC) for each four-week replicate and between years;</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>"Across this period, birds were consistent in the degree to which they used both strategies"</t>
@@ -3776,13 +3773,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3811,7 +3814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3820,6 +3823,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4118,9 +4124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,7 +4230,7 @@
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="2" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4268,19 +4274,19 @@
         <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="S2" t="s">
         <v>37</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
@@ -4299,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4343,13 +4349,13 @@
         <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="U3" s="1"/>
       <c r="W3" t="s">
@@ -4442,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4584,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4634,7 +4640,7 @@
         <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="T7" t="s">
         <v>42</v>
@@ -4724,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="AB8" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4796,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="AB12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5020,7 +5026,7 @@
         <v>34</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>42</v>
@@ -5039,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="AB13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="14" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5108,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="AB14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5177,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="AB15" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="16" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5314,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="AB17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5476,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="AB20" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5545,7 +5551,7 @@
         <v>2</v>
       </c>
       <c r="AB21" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5613,7 +5619,7 @@
         <v>2</v>
       </c>
       <c r="AB22" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5752,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="AB24" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5894,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="AB26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6309,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="AB34" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6430,11 +6436,9 @@
         <v>203</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V36" t="s">
-        <v>204</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U36" s="8"/>
       <c r="W36" t="s">
         <v>42</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="AB36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6492,17 +6496,18 @@
         <v>52</v>
       </c>
       <c r="Q37" t="s">
+        <v>204</v>
+      </c>
+      <c r="R37" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" t="s">
         <v>205</v>
       </c>
-      <c r="R37" t="s">
-        <v>34</v>
-      </c>
-      <c r="S37" t="s">
-        <v>206</v>
-      </c>
       <c r="T37" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="U37" s="8"/>
       <c r="W37" t="s">
         <v>42</v>
       </c>
@@ -6518,31 +6523,31 @@
     </row>
     <row r="38" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
       </c>
       <c r="C38">
         <v>2017</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38">
         <v>189</v>
       </c>
       <c r="G38" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" t="s">
         <v>210</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>211</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>212</v>
-      </c>
-      <c r="J38" t="s">
-        <v>213</v>
       </c>
       <c r="K38" t="s">
         <v>34</v>
@@ -6562,31 +6567,31 @@
     </row>
     <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
         <v>207</v>
-      </c>
-      <c r="B39" t="s">
-        <v>208</v>
       </c>
       <c r="C39">
         <v>2017</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39">
         <v>189</v>
       </c>
       <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" t="s">
         <v>210</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>211</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>212</v>
-      </c>
-      <c r="J39" t="s">
-        <v>213</v>
       </c>
       <c r="K39" t="s">
         <v>34</v>
@@ -6606,10 +6611,10 @@
     </row>
     <row r="40" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" t="s">
         <v>214</v>
-      </c>
-      <c r="B40" t="s">
-        <v>215</v>
       </c>
       <c r="C40">
         <v>2017</v>
@@ -6624,16 +6629,16 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" t="s">
         <v>216</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>217</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>218</v>
-      </c>
-      <c r="J40" t="s">
-        <v>219</v>
       </c>
       <c r="K40" t="s">
         <v>34</v>
@@ -6648,13 +6653,13 @@
         <v>35</v>
       </c>
       <c r="Q40" t="s">
+        <v>219</v>
+      </c>
+      <c r="R40" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" t="s">
         <v>220</v>
-      </c>
-      <c r="R40" t="s">
-        <v>34</v>
-      </c>
-      <c r="S40" t="s">
-        <v>221</v>
       </c>
       <c r="T40" t="s">
         <v>42</v>
@@ -6674,10 +6679,10 @@
     </row>
     <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s">
         <v>214</v>
-      </c>
-      <c r="B41" t="s">
-        <v>215</v>
       </c>
       <c r="C41">
         <v>2017</v>
@@ -6692,16 +6697,16 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" t="s">
         <v>216</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>217</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>218</v>
-      </c>
-      <c r="J41" t="s">
-        <v>219</v>
       </c>
       <c r="K41" t="s">
         <v>34</v>
@@ -6716,13 +6721,13 @@
         <v>35</v>
       </c>
       <c r="Q41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R41" t="s">
         <v>34</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T41" t="s">
         <v>42</v>
@@ -6740,48 +6745,48 @@
         <v>2</v>
       </c>
       <c r="AB41" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
         <v>223</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42">
         <v>134</v>
       </c>
       <c r="G42" t="s">
+        <v>225</v>
+      </c>
+      <c r="H42" t="s">
         <v>226</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>227</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>228</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X42" t="s">
         <v>229</v>
-      </c>
-      <c r="K42" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" t="s">
-        <v>34</v>
-      </c>
-      <c r="O42" t="s">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s">
-        <v>230</v>
       </c>
       <c r="Y42" t="s">
         <v>40</v>
@@ -6792,31 +6797,31 @@
     </row>
     <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s">
         <v>223</v>
-      </c>
-      <c r="B43" t="s">
-        <v>224</v>
       </c>
       <c r="C43">
         <v>2017</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43">
         <v>134</v>
       </c>
       <c r="G43" t="s">
+        <v>225</v>
+      </c>
+      <c r="H43" t="s">
         <v>226</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>227</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>228</v>
-      </c>
-      <c r="J43" t="s">
-        <v>229</v>
       </c>
       <c r="K43" t="s">
         <v>34</v>
@@ -6836,10 +6841,10 @@
     </row>
     <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
         <v>231</v>
-      </c>
-      <c r="B44" t="s">
-        <v>232</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -6851,16 +6856,16 @@
         <v>123</v>
       </c>
       <c r="G44" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" t="s">
         <v>233</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>234</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>235</v>
-      </c>
-      <c r="J44" t="s">
-        <v>236</v>
       </c>
       <c r="K44" t="s">
         <v>34</v>
@@ -6875,7 +6880,7 @@
         <v>35</v>
       </c>
       <c r="Q44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R44" t="s">
         <v>42</v>
@@ -6896,15 +6901,15 @@
         <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="45" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" t="s">
         <v>231</v>
-      </c>
-      <c r="B45" t="s">
-        <v>232</v>
       </c>
       <c r="C45">
         <v>2017</v>
@@ -6916,16 +6921,16 @@
         <v>123</v>
       </c>
       <c r="G45" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" t="s">
         <v>233</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>234</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>235</v>
-      </c>
-      <c r="J45" t="s">
-        <v>236</v>
       </c>
       <c r="K45" t="s">
         <v>34</v>
@@ -6959,21 +6964,21 @@
         <v>2</v>
       </c>
       <c r="AB45" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="46" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
         <v>238</v>
-      </c>
-      <c r="B46" t="s">
-        <v>239</v>
       </c>
       <c r="C46">
         <v>2016</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46">
         <v>11</v>
@@ -6982,25 +6987,25 @@
         <v>12</v>
       </c>
       <c r="H46" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" t="s">
         <v>241</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>242</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s">
         <v>243</v>
-      </c>
-      <c r="K46" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" t="s">
-        <v>34</v>
-      </c>
-      <c r="O46" t="s">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s">
-        <v>244</v>
       </c>
       <c r="Y46" t="s">
         <v>68</v>
@@ -7011,16 +7016,16 @@
     </row>
     <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
         <v>238</v>
-      </c>
-      <c r="B47" t="s">
-        <v>239</v>
       </c>
       <c r="C47">
         <v>2016</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47">
         <v>11</v>
@@ -7029,13 +7034,13 @@
         <v>12</v>
       </c>
       <c r="H47" t="s">
+        <v>240</v>
+      </c>
+      <c r="I47" t="s">
         <v>241</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>242</v>
-      </c>
-      <c r="J47" t="s">
-        <v>243</v>
       </c>
       <c r="K47" t="s">
         <v>34</v>
@@ -7055,10 +7060,10 @@
     </row>
     <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" t="s">
         <v>245</v>
-      </c>
-      <c r="B48" t="s">
-        <v>246</v>
       </c>
       <c r="C48">
         <v>2016</v>
@@ -7070,16 +7075,16 @@
         <v>122</v>
       </c>
       <c r="G48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" t="s">
         <v>247</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>248</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>249</v>
-      </c>
-      <c r="J48" t="s">
-        <v>250</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -7101,7 +7106,7 @@
         <v>42</v>
       </c>
       <c r="X48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y48" t="s">
         <v>68</v>
@@ -7113,15 +7118,15 @@
         <v>2</v>
       </c>
       <c r="AB48" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="49" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
         <v>245</v>
-      </c>
-      <c r="B49" t="s">
-        <v>246</v>
       </c>
       <c r="C49">
         <v>2016</v>
@@ -7133,16 +7138,16 @@
         <v>122</v>
       </c>
       <c r="G49" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" t="s">
         <v>247</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>248</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>249</v>
-      </c>
-      <c r="J49" t="s">
-        <v>250</v>
       </c>
       <c r="K49" t="s">
         <v>34</v>
@@ -7157,7 +7162,7 @@
         <v>41</v>
       </c>
       <c r="Q49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R49" s="1"/>
       <c r="T49" t="s">
@@ -7176,15 +7181,15 @@
         <v>2</v>
       </c>
       <c r="AB49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
         <v>253</v>
-      </c>
-      <c r="B50" t="s">
-        <v>254</v>
       </c>
       <c r="C50">
         <v>2016</v>
@@ -7199,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="G50" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" t="s">
         <v>255</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>256</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>257</v>
-      </c>
-      <c r="J50" t="s">
-        <v>258</v>
       </c>
       <c r="K50" t="s">
         <v>34</v>
@@ -7223,7 +7228,7 @@
         <v>35</v>
       </c>
       <c r="Q50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>42</v>
@@ -7244,15 +7249,15 @@
         <v>2</v>
       </c>
       <c r="AB50" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="51" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
         <v>253</v>
-      </c>
-      <c r="B51" t="s">
-        <v>254</v>
       </c>
       <c r="C51">
         <v>2016</v>
@@ -7267,16 +7272,16 @@
         <v>6</v>
       </c>
       <c r="G51" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" t="s">
         <v>255</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>256</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>257</v>
-      </c>
-      <c r="J51" t="s">
-        <v>258</v>
       </c>
       <c r="K51" t="s">
         <v>34</v>
@@ -7291,7 +7296,7 @@
         <v>35</v>
       </c>
       <c r="Q51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>42</v>
@@ -7313,15 +7318,15 @@
         <v>2</v>
       </c>
       <c r="AB51" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="52" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" t="s">
         <v>261</v>
-      </c>
-      <c r="B52" t="s">
-        <v>262</v>
       </c>
       <c r="C52">
         <v>2016</v>
@@ -7333,28 +7338,28 @@
         <v>121</v>
       </c>
       <c r="G52" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" t="s">
         <v>263</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>264</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>265</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" t="s">
         <v>266</v>
-      </c>
-      <c r="K52" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" t="s">
-        <v>34</v>
-      </c>
-      <c r="O52" t="s">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s">
-        <v>267</v>
       </c>
       <c r="Y52" t="s">
         <v>68</v>
@@ -7365,10 +7370,10 @@
     </row>
     <row r="53" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
         <v>261</v>
-      </c>
-      <c r="B53" t="s">
-        <v>262</v>
       </c>
       <c r="C53">
         <v>2016</v>
@@ -7380,17 +7385,17 @@
         <v>121</v>
       </c>
       <c r="G53" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" t="s">
         <v>263</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>264</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>265</v>
       </c>
-      <c r="J53" t="s">
-        <v>266</v>
-      </c>
       <c r="K53" t="s">
         <v>34</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>42</v>
       </c>
       <c r="X53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Y53" t="s">
         <v>40</v>
@@ -7412,10 +7417,10 @@
     </row>
     <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
         <v>269</v>
-      </c>
-      <c r="B54" t="s">
-        <v>270</v>
       </c>
       <c r="C54">
         <v>2016</v>
@@ -7430,16 +7435,16 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>270</v>
+      </c>
+      <c r="H54" t="s">
         <v>271</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>272</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>273</v>
-      </c>
-      <c r="J54" t="s">
-        <v>274</v>
       </c>
       <c r="K54" t="s">
         <v>34</v>
@@ -7454,7 +7459,7 @@
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R54" t="s">
         <v>42</v>
@@ -7475,15 +7480,15 @@
         <v>2</v>
       </c>
       <c r="AB54" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="55" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" t="s">
         <v>269</v>
-      </c>
-      <c r="B55" t="s">
-        <v>270</v>
       </c>
       <c r="C55">
         <v>2016</v>
@@ -7498,16 +7503,16 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
+        <v>270</v>
+      </c>
+      <c r="H55" t="s">
         <v>271</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>272</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>273</v>
-      </c>
-      <c r="J55" t="s">
-        <v>274</v>
       </c>
       <c r="K55" t="s">
         <v>34</v>
@@ -7544,15 +7549,15 @@
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
         <v>276</v>
-      </c>
-      <c r="B56" t="s">
-        <v>277</v>
       </c>
       <c r="C56">
         <v>2016</v>
@@ -7567,28 +7572,28 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
+        <v>277</v>
+      </c>
+      <c r="H56" t="s">
         <v>278</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>279</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>280</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" t="s">
+        <v>42</v>
+      </c>
+      <c r="X56" t="s">
         <v>281</v>
-      </c>
-      <c r="K56" t="s">
-        <v>34</v>
-      </c>
-      <c r="M56" t="s">
-        <v>34</v>
-      </c>
-      <c r="O56" t="s">
-        <v>42</v>
-      </c>
-      <c r="X56" t="s">
-        <v>282</v>
       </c>
       <c r="Y56" t="s">
         <v>68</v>
@@ -7599,10 +7604,10 @@
     </row>
     <row r="57" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
         <v>276</v>
-      </c>
-      <c r="B57" t="s">
-        <v>277</v>
       </c>
       <c r="C57">
         <v>2016</v>
@@ -7617,17 +7622,17 @@
         <v>3</v>
       </c>
       <c r="G57" t="s">
+        <v>277</v>
+      </c>
+      <c r="H57" t="s">
         <v>278</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>279</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>280</v>
       </c>
-      <c r="J57" t="s">
-        <v>281</v>
-      </c>
       <c r="K57" t="s">
         <v>34</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>42</v>
       </c>
       <c r="X57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y57" t="s">
         <v>40</v>
@@ -7649,43 +7654,43 @@
     </row>
     <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" t="s">
         <v>284</v>
-      </c>
-      <c r="B58" t="s">
-        <v>285</v>
       </c>
       <c r="C58">
         <v>2016</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58">
         <v>174</v>
       </c>
       <c r="G58" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" t="s">
         <v>286</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>287</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>288</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58" t="s">
+        <v>42</v>
+      </c>
+      <c r="X58" t="s">
         <v>289</v>
-      </c>
-      <c r="K58" t="s">
-        <v>34</v>
-      </c>
-      <c r="M58" t="s">
-        <v>34</v>
-      </c>
-      <c r="O58" t="s">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s">
-        <v>290</v>
       </c>
       <c r="Y58" t="s">
         <v>40</v>
@@ -7696,31 +7701,31 @@
     </row>
     <row r="59" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
         <v>284</v>
-      </c>
-      <c r="B59" t="s">
-        <v>285</v>
       </c>
       <c r="C59">
         <v>2016</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59">
         <v>174</v>
       </c>
       <c r="G59" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59" t="s">
         <v>286</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>287</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>288</v>
-      </c>
-      <c r="J59" t="s">
-        <v>289</v>
       </c>
       <c r="K59" t="s">
         <v>34</v>
@@ -7740,10 +7745,10 @@
     </row>
     <row r="60" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s">
         <v>291</v>
-      </c>
-      <c r="B60" t="s">
-        <v>292</v>
       </c>
       <c r="C60">
         <v>2016</v>
@@ -7755,16 +7760,16 @@
         <v>111</v>
       </c>
       <c r="G60" t="s">
+        <v>292</v>
+      </c>
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>294</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>295</v>
-      </c>
-      <c r="J60" t="s">
-        <v>296</v>
       </c>
       <c r="K60" t="s">
         <v>34</v>
@@ -7779,13 +7784,13 @@
         <v>35</v>
       </c>
       <c r="Q60" t="s">
+        <v>296</v>
+      </c>
+      <c r="R60" t="s">
+        <v>34</v>
+      </c>
+      <c r="S60" t="s">
         <v>297</v>
-      </c>
-      <c r="R60" t="s">
-        <v>34</v>
-      </c>
-      <c r="S60" t="s">
-        <v>298</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>34</v>
@@ -7797,7 +7802,7 @@
         <v>42</v>
       </c>
       <c r="X60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y60" t="s">
         <v>68</v>
@@ -7809,15 +7814,15 @@
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="61" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" t="s">
         <v>291</v>
-      </c>
-      <c r="B61" t="s">
-        <v>292</v>
       </c>
       <c r="C61">
         <v>2016</v>
@@ -7829,16 +7834,16 @@
         <v>111</v>
       </c>
       <c r="G61" t="s">
+        <v>292</v>
+      </c>
+      <c r="H61" t="s">
         <v>293</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>294</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>295</v>
-      </c>
-      <c r="J61" t="s">
-        <v>296</v>
       </c>
       <c r="K61" t="s">
         <v>34</v>
@@ -7853,7 +7858,7 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R61" t="s">
         <v>34</v>
@@ -7866,7 +7871,7 @@
         <v>52</v>
       </c>
       <c r="V61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>42</v>
@@ -7881,15 +7886,15 @@
         <v>2</v>
       </c>
       <c r="AB61" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="62" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" t="s">
         <v>302</v>
-      </c>
-      <c r="B62" t="s">
-        <v>303</v>
       </c>
       <c r="C62">
         <v>2015</v>
@@ -7904,16 +7909,16 @@
         <v>6</v>
       </c>
       <c r="G62" t="s">
+        <v>303</v>
+      </c>
+      <c r="H62" t="s">
         <v>304</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>305</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>306</v>
-      </c>
-      <c r="J62" t="s">
-        <v>307</v>
       </c>
       <c r="K62" t="s">
         <v>34</v>
@@ -7928,22 +7933,22 @@
         <v>38</v>
       </c>
       <c r="Q62" t="s">
+        <v>307</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S62" t="s">
         <v>308</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
+        <v>42</v>
+      </c>
+      <c r="W62" t="s">
+        <v>42</v>
+      </c>
+      <c r="X62" t="s">
         <v>309</v>
-      </c>
-      <c r="T62" t="s">
-        <v>42</v>
-      </c>
-      <c r="W62" t="s">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s">
-        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>68</v>
@@ -7955,15 +7960,15 @@
         <v>2</v>
       </c>
       <c r="AB62" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="63" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" t="s">
         <v>302</v>
-      </c>
-      <c r="B63" t="s">
-        <v>303</v>
       </c>
       <c r="C63">
         <v>2015</v>
@@ -7978,16 +7983,16 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I63" t="s">
+        <v>305</v>
+      </c>
+      <c r="J63" t="s">
         <v>306</v>
-      </c>
-      <c r="J63" t="s">
-        <v>307</v>
       </c>
       <c r="K63" t="s">
         <v>34</v>
@@ -8002,7 +8007,7 @@
         <v>38</v>
       </c>
       <c r="Q63" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>42</v>
@@ -8025,10 +8030,10 @@
     </row>
     <row r="64" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
         <v>313</v>
-      </c>
-      <c r="B64" t="s">
-        <v>314</v>
       </c>
       <c r="C64">
         <v>2015</v>
@@ -8043,16 +8048,16 @@
         <v>8</v>
       </c>
       <c r="G64" t="s">
+        <v>314</v>
+      </c>
+      <c r="H64" t="s">
         <v>315</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>316</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>317</v>
-      </c>
-      <c r="J64" t="s">
-        <v>318</v>
       </c>
       <c r="K64" t="s">
         <v>34</v>
@@ -8072,10 +8077,10 @@
     </row>
     <row r="65" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" t="s">
         <v>313</v>
-      </c>
-      <c r="B65" t="s">
-        <v>314</v>
       </c>
       <c r="C65">
         <v>2015</v>
@@ -8090,16 +8095,16 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" t="s">
         <v>315</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>316</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>317</v>
-      </c>
-      <c r="J65" t="s">
-        <v>318</v>
       </c>
       <c r="K65" t="s">
         <v>34</v>
@@ -8119,10 +8124,10 @@
     </row>
     <row r="66" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" t="s">
         <v>319</v>
-      </c>
-      <c r="B66" t="s">
-        <v>320</v>
       </c>
       <c r="C66">
         <v>2015</v>
@@ -8134,16 +8139,16 @@
         <v>104</v>
       </c>
       <c r="G66" t="s">
+        <v>320</v>
+      </c>
+      <c r="H66" t="s">
         <v>321</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>322</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>323</v>
-      </c>
-      <c r="J66" t="s">
-        <v>324</v>
       </c>
       <c r="K66" t="s">
         <v>34</v>
@@ -8163,10 +8168,10 @@
     </row>
     <row r="67" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" t="s">
         <v>319</v>
-      </c>
-      <c r="B67" t="s">
-        <v>320</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -8178,28 +8183,28 @@
         <v>104</v>
       </c>
       <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" t="s">
         <v>321</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>322</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>323</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
+        <v>34</v>
+      </c>
+      <c r="M67" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" t="s">
+        <v>42</v>
+      </c>
+      <c r="X67" t="s">
         <v>324</v>
-      </c>
-      <c r="K67" t="s">
-        <v>34</v>
-      </c>
-      <c r="M67" t="s">
-        <v>34</v>
-      </c>
-      <c r="O67" t="s">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s">
-        <v>325</v>
       </c>
       <c r="Y67" t="s">
         <v>40</v>
@@ -8210,10 +8215,10 @@
     </row>
     <row r="68" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" t="s">
         <v>326</v>
-      </c>
-      <c r="B68" t="s">
-        <v>327</v>
       </c>
       <c r="C68">
         <v>2015</v>
@@ -8225,16 +8230,16 @@
         <v>103</v>
       </c>
       <c r="G68" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" t="s">
         <v>328</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>329</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>330</v>
-      </c>
-      <c r="J68" t="s">
-        <v>331</v>
       </c>
       <c r="K68" t="s">
         <v>34</v>
@@ -8249,7 +8254,7 @@
         <v>35</v>
       </c>
       <c r="Q68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>34</v>
@@ -8270,15 +8275,15 @@
         <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="69" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
         <v>326</v>
-      </c>
-      <c r="B69" t="s">
-        <v>327</v>
       </c>
       <c r="C69">
         <v>2015</v>
@@ -8290,16 +8295,16 @@
         <v>103</v>
       </c>
       <c r="G69" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" t="s">
         <v>328</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>329</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>330</v>
-      </c>
-      <c r="J69" t="s">
-        <v>331</v>
       </c>
       <c r="K69" t="s">
         <v>34</v>
@@ -8318,7 +8323,7 @@
         <v>34</v>
       </c>
       <c r="S69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T69" t="s">
         <v>42</v>
@@ -8336,15 +8341,15 @@
         <v>2</v>
       </c>
       <c r="AB69" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="70" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" t="s">
         <v>334</v>
-      </c>
-      <c r="B70" t="s">
-        <v>335</v>
       </c>
       <c r="C70">
         <v>2015</v>
@@ -8359,13 +8364,13 @@
         <v>1803</v>
       </c>
       <c r="H70" t="s">
+        <v>335</v>
+      </c>
+      <c r="I70" t="s">
         <v>336</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>337</v>
-      </c>
-      <c r="J70" t="s">
-        <v>338</v>
       </c>
       <c r="K70" t="s">
         <v>34</v>
@@ -8382,7 +8387,7 @@
       <c r="T70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y70" t="s">
         <v>68</v>
@@ -8392,15 +8397,15 @@
         <v>2</v>
       </c>
       <c r="AB70" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="71" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" t="s">
         <v>334</v>
-      </c>
-      <c r="B71" t="s">
-        <v>335</v>
       </c>
       <c r="C71">
         <v>2015</v>
@@ -8415,13 +8420,13 @@
         <v>1803</v>
       </c>
       <c r="H71" t="s">
+        <v>335</v>
+      </c>
+      <c r="I71" t="s">
         <v>336</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>337</v>
-      </c>
-      <c r="J71" t="s">
-        <v>338</v>
       </c>
       <c r="K71" t="s">
         <v>34</v>
@@ -8438,7 +8443,7 @@
       <c r="T71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y71" t="s">
         <v>44</v>
@@ -8450,10 +8455,10 @@
     </row>
     <row r="72" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" t="s">
         <v>341</v>
-      </c>
-      <c r="B72" t="s">
-        <v>342</v>
       </c>
       <c r="C72">
         <v>2015</v>
@@ -8465,16 +8470,16 @@
         <v>101</v>
       </c>
       <c r="G72" t="s">
+        <v>342</v>
+      </c>
+      <c r="H72" t="s">
         <v>343</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>344</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>345</v>
-      </c>
-      <c r="J72" t="s">
-        <v>346</v>
       </c>
       <c r="K72" t="s">
         <v>34</v>
@@ -8494,10 +8499,10 @@
     </row>
     <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s">
         <v>341</v>
-      </c>
-      <c r="B73" t="s">
-        <v>342</v>
       </c>
       <c r="C73">
         <v>2015</v>
@@ -8509,16 +8514,16 @@
         <v>101</v>
       </c>
       <c r="G73" t="s">
+        <v>342</v>
+      </c>
+      <c r="H73" t="s">
         <v>343</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>344</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>345</v>
-      </c>
-      <c r="J73" t="s">
-        <v>346</v>
       </c>
       <c r="K73" t="s">
         <v>34</v>
@@ -8538,10 +8543,10 @@
     </row>
     <row r="74" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" t="s">
         <v>347</v>
-      </c>
-      <c r="B74" t="s">
-        <v>348</v>
       </c>
       <c r="C74">
         <v>2015</v>
@@ -8556,25 +8561,25 @@
         <v>1799</v>
       </c>
       <c r="H74" t="s">
+        <v>348</v>
+      </c>
+      <c r="I74" t="s">
         <v>349</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>350</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" t="s">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s">
         <v>351</v>
-      </c>
-      <c r="K74" t="s">
-        <v>34</v>
-      </c>
-      <c r="M74" t="s">
-        <v>34</v>
-      </c>
-      <c r="O74" t="s">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s">
-        <v>352</v>
       </c>
       <c r="Y74" t="s">
         <v>40</v>
@@ -8585,10 +8590,10 @@
     </row>
     <row r="75" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="s">
         <v>347</v>
-      </c>
-      <c r="B75" t="s">
-        <v>348</v>
       </c>
       <c r="C75">
         <v>2015</v>
@@ -8603,13 +8608,13 @@
         <v>1799</v>
       </c>
       <c r="H75" t="s">
+        <v>348</v>
+      </c>
+      <c r="I75" t="s">
         <v>349</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>350</v>
-      </c>
-      <c r="J75" t="s">
-        <v>351</v>
       </c>
       <c r="K75" t="s">
         <v>34</v>
@@ -8629,10 +8634,10 @@
     </row>
     <row r="76" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" t="s">
         <v>353</v>
-      </c>
-      <c r="B76" t="s">
-        <v>354</v>
       </c>
       <c r="C76">
         <v>2015</v>
@@ -8647,28 +8652,28 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
+        <v>354</v>
+      </c>
+      <c r="H76" t="s">
         <v>355</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>356</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>357</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" t="s">
+        <v>42</v>
+      </c>
+      <c r="X76" t="s">
         <v>358</v>
-      </c>
-      <c r="K76" t="s">
-        <v>34</v>
-      </c>
-      <c r="M76" t="s">
-        <v>34</v>
-      </c>
-      <c r="O76" t="s">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s">
-        <v>359</v>
       </c>
       <c r="Y76" t="s">
         <v>40</v>
@@ -8679,10 +8684,10 @@
     </row>
     <row r="77" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" t="s">
         <v>353</v>
-      </c>
-      <c r="B77" t="s">
-        <v>354</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -8697,16 +8702,16 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
+        <v>354</v>
+      </c>
+      <c r="H77" t="s">
         <v>355</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>356</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>357</v>
-      </c>
-      <c r="J77" t="s">
-        <v>358</v>
       </c>
       <c r="K77" t="s">
         <v>34</v>
@@ -8726,10 +8731,10 @@
     </row>
     <row r="78" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" t="s">
         <v>360</v>
-      </c>
-      <c r="B78" t="s">
-        <v>361</v>
       </c>
       <c r="C78">
         <v>2015</v>
@@ -8744,17 +8749,17 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
+        <v>361</v>
+      </c>
+      <c r="H78" t="s">
         <v>362</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>363</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>364</v>
       </c>
-      <c r="J78" t="s">
-        <v>365</v>
-      </c>
       <c r="K78" t="s">
         <v>34</v>
       </c>
@@ -8765,7 +8770,7 @@
         <v>42</v>
       </c>
       <c r="X78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y78" t="s">
         <v>40</v>
@@ -8776,10 +8781,10 @@
     </row>
     <row r="79" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>359</v>
+      </c>
+      <c r="B79" t="s">
         <v>360</v>
-      </c>
-      <c r="B79" t="s">
-        <v>361</v>
       </c>
       <c r="C79">
         <v>2015</v>
@@ -8794,16 +8799,16 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
+        <v>361</v>
+      </c>
+      <c r="H79" t="s">
         <v>362</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>363</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>364</v>
-      </c>
-      <c r="J79" t="s">
-        <v>365</v>
       </c>
       <c r="K79" t="s">
         <v>34</v>
@@ -8823,10 +8828,10 @@
     </row>
     <row r="80" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" t="s">
         <v>366</v>
-      </c>
-      <c r="B80" t="s">
-        <v>367</v>
       </c>
       <c r="C80">
         <v>2019</v>
@@ -8841,25 +8846,25 @@
         <v>5</v>
       </c>
       <c r="H80" t="s">
+        <v>367</v>
+      </c>
+      <c r="I80" t="s">
         <v>368</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>369</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>34</v>
+      </c>
+      <c r="O80" t="s">
+        <v>42</v>
+      </c>
+      <c r="X80" t="s">
         <v>370</v>
-      </c>
-      <c r="K80" t="s">
-        <v>34</v>
-      </c>
-      <c r="M80" t="s">
-        <v>34</v>
-      </c>
-      <c r="O80" t="s">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s">
-        <v>371</v>
       </c>
       <c r="Y80" t="s">
         <v>40</v>
@@ -8870,10 +8875,10 @@
     </row>
     <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" t="s">
         <v>372</v>
-      </c>
-      <c r="B81" t="s">
-        <v>373</v>
       </c>
       <c r="C81">
         <v>2019</v>
@@ -8885,16 +8890,16 @@
         <v>150</v>
       </c>
       <c r="G81" t="s">
+        <v>373</v>
+      </c>
+      <c r="H81" t="s">
         <v>374</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>375</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>376</v>
-      </c>
-      <c r="J81" t="s">
-        <v>377</v>
       </c>
       <c r="K81" t="s">
         <v>34</v>
@@ -8909,13 +8914,13 @@
         <v>35</v>
       </c>
       <c r="Q81" t="s">
+        <v>377</v>
+      </c>
+      <c r="R81" t="s">
+        <v>34</v>
+      </c>
+      <c r="S81" t="s">
         <v>378</v>
-      </c>
-      <c r="R81" t="s">
-        <v>34</v>
-      </c>
-      <c r="S81" t="s">
-        <v>379</v>
       </c>
       <c r="T81" t="s">
         <v>42</v>
@@ -8935,10 +8940,10 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C82" s="2">
         <v>2019</v>
@@ -8950,16 +8955,16 @@
         <v>150</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>34</v>
@@ -8974,13 +8979,13 @@
         <v>35</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>34</v>
@@ -8989,7 +8994,7 @@
         <v>38</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>42</v>
@@ -9004,15 +9009,15 @@
         <v>1</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>387</v>
+      </c>
+      <c r="B83" t="s">
         <v>388</v>
-      </c>
-      <c r="B83" t="s">
-        <v>389</v>
       </c>
       <c r="C83">
         <v>2019</v>
@@ -9027,16 +9032,16 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
+        <v>389</v>
+      </c>
+      <c r="H83" t="s">
         <v>390</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>391</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>392</v>
-      </c>
-      <c r="J83" t="s">
-        <v>393</v>
       </c>
       <c r="K83" t="s">
         <v>34</v>
@@ -9051,7 +9056,7 @@
         <v>35</v>
       </c>
       <c r="Q83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R83" t="s">
         <v>42</v>
@@ -9074,10 +9079,10 @@
     </row>
     <row r="84" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" t="s">
         <v>395</v>
-      </c>
-      <c r="B84" t="s">
-        <v>396</v>
       </c>
       <c r="C84">
         <v>2019</v>
@@ -9092,13 +9097,13 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
+        <v>396</v>
+      </c>
+      <c r="I84" t="s">
         <v>397</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>398</v>
-      </c>
-      <c r="J84" t="s">
-        <v>399</v>
       </c>
       <c r="K84" t="s">
         <v>34</v>
@@ -9113,13 +9118,13 @@
         <v>35</v>
       </c>
       <c r="Q84" t="s">
+        <v>399</v>
+      </c>
+      <c r="R84" t="s">
+        <v>34</v>
+      </c>
+      <c r="S84" t="s">
         <v>400</v>
-      </c>
-      <c r="R84" t="s">
-        <v>34</v>
-      </c>
-      <c r="S84" t="s">
-        <v>401</v>
       </c>
       <c r="T84" t="s">
         <v>42</v>
@@ -9139,10 +9144,10 @@
     </row>
     <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B85" t="s">
         <v>402</v>
-      </c>
-      <c r="B85" t="s">
-        <v>403</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -9154,16 +9159,16 @@
         <v>147</v>
       </c>
       <c r="G85" t="s">
+        <v>403</v>
+      </c>
+      <c r="H85" t="s">
         <v>404</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>405</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>406</v>
-      </c>
-      <c r="J85" t="s">
-        <v>407</v>
       </c>
       <c r="K85" t="s">
         <v>34</v>
@@ -9178,7 +9183,7 @@
         <v>35</v>
       </c>
       <c r="Q85" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R85" t="s">
         <v>42</v>
@@ -9201,31 +9206,31 @@
     </row>
     <row r="86" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B86" t="s">
         <v>409</v>
-      </c>
-      <c r="B86" t="s">
-        <v>410</v>
       </c>
       <c r="C86">
         <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E86">
         <v>157</v>
       </c>
       <c r="G86" t="s">
+        <v>410</v>
+      </c>
+      <c r="H86" t="s">
         <v>411</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>412</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>413</v>
-      </c>
-      <c r="J86" t="s">
-        <v>414</v>
       </c>
       <c r="K86" t="s">
         <v>34</v>
@@ -9240,13 +9245,13 @@
         <v>35</v>
       </c>
       <c r="Q86" t="s">
+        <v>414</v>
+      </c>
+      <c r="R86" t="s">
+        <v>34</v>
+      </c>
+      <c r="S86" t="s">
         <v>415</v>
-      </c>
-      <c r="R86" t="s">
-        <v>34</v>
-      </c>
-      <c r="S86" t="s">
-        <v>416</v>
       </c>
       <c r="T86" t="s">
         <v>42</v>
@@ -9266,10 +9271,10 @@
     </row>
     <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" t="s">
         <v>417</v>
-      </c>
-      <c r="B87" t="s">
-        <v>418</v>
       </c>
       <c r="C87">
         <v>2018</v>
@@ -9284,28 +9289,28 @@
         <v>6</v>
       </c>
       <c r="G87" t="s">
+        <v>418</v>
+      </c>
+      <c r="H87" t="s">
         <v>419</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>420</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>421</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O87" t="s">
+        <v>42</v>
+      </c>
+      <c r="X87" t="s">
         <v>422</v>
-      </c>
-      <c r="K87" t="s">
-        <v>34</v>
-      </c>
-      <c r="M87" t="s">
-        <v>34</v>
-      </c>
-      <c r="O87" t="s">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s">
-        <v>423</v>
       </c>
       <c r="Y87" t="s">
         <v>40</v>
@@ -9316,10 +9321,10 @@
     </row>
     <row r="88" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" t="s">
         <v>424</v>
-      </c>
-      <c r="B88" t="s">
-        <v>425</v>
       </c>
       <c r="C88">
         <v>2018</v>
@@ -9334,16 +9339,16 @@
         <v>5</v>
       </c>
       <c r="G88" t="s">
+        <v>425</v>
+      </c>
+      <c r="H88" t="s">
         <v>426</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>427</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>428</v>
-      </c>
-      <c r="J88" t="s">
-        <v>429</v>
       </c>
       <c r="K88" t="s">
         <v>34</v>
@@ -9358,7 +9363,7 @@
         <v>35</v>
       </c>
       <c r="Q88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R88" t="s">
         <v>42</v>
@@ -9381,10 +9386,10 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C89" s="2">
         <v>2018</v>
@@ -9399,13 +9404,13 @@
         <v>10</v>
       </c>
       <c r="H89" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>34</v>
@@ -9425,16 +9430,16 @@
     </row>
     <row r="90" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>435</v>
+      </c>
+      <c r="B90" t="s">
         <v>436</v>
-      </c>
-      <c r="B90" t="s">
-        <v>437</v>
       </c>
       <c r="C90">
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E90">
         <v>13</v>
@@ -9443,25 +9448,25 @@
         <v>9</v>
       </c>
       <c r="H90" t="s">
+        <v>437</v>
+      </c>
+      <c r="I90" t="s">
         <v>438</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>439</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90" t="s">
+        <v>34</v>
+      </c>
+      <c r="O90" t="s">
+        <v>42</v>
+      </c>
+      <c r="X90" t="s">
         <v>440</v>
-      </c>
-      <c r="K90" t="s">
-        <v>34</v>
-      </c>
-      <c r="M90" t="s">
-        <v>34</v>
-      </c>
-      <c r="O90" t="s">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s">
-        <v>441</v>
       </c>
       <c r="Y90" t="s">
         <v>40</v>
@@ -9472,16 +9477,16 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C91" s="2">
         <v>2018</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E91" s="2">
         <v>13</v>
@@ -9490,13 +9495,13 @@
         <v>9</v>
       </c>
       <c r="H91" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>34</v>
@@ -9516,10 +9521,10 @@
     </row>
     <row r="92" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" t="s">
         <v>447</v>
-      </c>
-      <c r="B92" t="s">
-        <v>448</v>
       </c>
       <c r="C92">
         <v>2018</v>
@@ -9531,28 +9536,28 @@
         <v>142</v>
       </c>
       <c r="G92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H92" t="s">
         <v>449</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>450</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>451</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" t="s">
+        <v>34</v>
+      </c>
+      <c r="O92" t="s">
+        <v>42</v>
+      </c>
+      <c r="X92" t="s">
         <v>452</v>
-      </c>
-      <c r="K92" t="s">
-        <v>34</v>
-      </c>
-      <c r="M92" t="s">
-        <v>34</v>
-      </c>
-      <c r="O92" t="s">
-        <v>42</v>
-      </c>
-      <c r="X92" t="s">
-        <v>453</v>
       </c>
       <c r="Y92" t="s">
         <v>40</v>
@@ -9563,10 +9568,10 @@
     </row>
     <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>453</v>
+      </c>
+      <c r="B93" t="s">
         <v>454</v>
-      </c>
-      <c r="B93" t="s">
-        <v>455</v>
       </c>
       <c r="C93">
         <v>2018</v>
@@ -9578,16 +9583,16 @@
         <v>142</v>
       </c>
       <c r="G93" t="s">
+        <v>455</v>
+      </c>
+      <c r="H93" t="s">
         <v>456</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>457</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>458</v>
-      </c>
-      <c r="J93" t="s">
-        <v>459</v>
       </c>
       <c r="K93" t="s">
         <v>34</v>
@@ -9602,22 +9607,22 @@
         <v>52</v>
       </c>
       <c r="Q93" t="s">
+        <v>459</v>
+      </c>
+      <c r="R93" t="s">
+        <v>34</v>
+      </c>
+      <c r="S93" t="s">
         <v>460</v>
       </c>
-      <c r="R93" t="s">
-        <v>34</v>
-      </c>
-      <c r="S93" t="s">
+      <c r="T93" t="s">
+        <v>42</v>
+      </c>
+      <c r="W93" t="s">
+        <v>42</v>
+      </c>
+      <c r="X93" t="s">
         <v>461</v>
-      </c>
-      <c r="T93" t="s">
-        <v>42</v>
-      </c>
-      <c r="W93" t="s">
-        <v>42</v>
-      </c>
-      <c r="X93" t="s">
-        <v>462</v>
       </c>
       <c r="Y93" t="s">
         <v>68</v>
@@ -9631,10 +9636,10 @@
     </row>
     <row r="94" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>462</v>
+      </c>
+      <c r="B94" t="s">
         <v>463</v>
-      </c>
-      <c r="B94" t="s">
-        <v>464</v>
       </c>
       <c r="C94">
         <v>2018</v>
@@ -9646,16 +9651,16 @@
         <v>142</v>
       </c>
       <c r="G94" t="s">
+        <v>464</v>
+      </c>
+      <c r="H94" t="s">
         <v>465</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>466</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>467</v>
-      </c>
-      <c r="J94" t="s">
-        <v>468</v>
       </c>
       <c r="K94" t="s">
         <v>34</v>
@@ -9678,10 +9683,10 @@
     </row>
     <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>468</v>
+      </c>
+      <c r="B95" t="s">
         <v>469</v>
-      </c>
-      <c r="B95" t="s">
-        <v>470</v>
       </c>
       <c r="C95">
         <v>2018</v>
@@ -9693,16 +9698,16 @@
         <v>142</v>
       </c>
       <c r="G95" t="s">
+        <v>470</v>
+      </c>
+      <c r="H95" t="s">
         <v>471</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>472</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>473</v>
-      </c>
-      <c r="J95" t="s">
-        <v>474</v>
       </c>
       <c r="K95" t="s">
         <v>34</v>
@@ -9725,10 +9730,10 @@
     </row>
     <row r="96" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>474</v>
+      </c>
+      <c r="B96" t="s">
         <v>475</v>
-      </c>
-      <c r="B96" t="s">
-        <v>476</v>
       </c>
       <c r="C96">
         <v>2018</v>
@@ -9743,16 +9748,16 @@
         <v>8</v>
       </c>
       <c r="G96" t="s">
+        <v>476</v>
+      </c>
+      <c r="H96" t="s">
         <v>477</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>478</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>479</v>
-      </c>
-      <c r="J96" t="s">
-        <v>480</v>
       </c>
       <c r="K96" t="s">
         <v>34</v>
@@ -9767,13 +9772,13 @@
         <v>35</v>
       </c>
       <c r="Q96" t="s">
+        <v>480</v>
+      </c>
+      <c r="R96" t="s">
+        <v>34</v>
+      </c>
+      <c r="S96" t="s">
         <v>481</v>
-      </c>
-      <c r="R96" t="s">
-        <v>34</v>
-      </c>
-      <c r="S96" t="s">
-        <v>482</v>
       </c>
       <c r="T96" t="s">
         <v>34</v>
@@ -9782,7 +9787,7 @@
         <v>52</v>
       </c>
       <c r="V96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W96" t="s">
         <v>34</v>
@@ -9799,10 +9804,10 @@
     </row>
     <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>483</v>
+      </c>
+      <c r="B97" t="s">
         <v>484</v>
-      </c>
-      <c r="B97" t="s">
-        <v>485</v>
       </c>
       <c r="C97">
         <v>2018</v>
@@ -9817,13 +9822,13 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
+        <v>485</v>
+      </c>
+      <c r="I97" t="s">
         <v>486</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>487</v>
-      </c>
-      <c r="J97" t="s">
-        <v>488</v>
       </c>
       <c r="K97" t="s">
         <v>34</v>
@@ -9838,22 +9843,22 @@
         <v>35</v>
       </c>
       <c r="Q97" t="s">
+        <v>488</v>
+      </c>
+      <c r="R97" t="s">
+        <v>42</v>
+      </c>
+      <c r="S97" t="s">
         <v>489</v>
       </c>
-      <c r="R97" t="s">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
+        <v>42</v>
+      </c>
+      <c r="W97" t="s">
+        <v>42</v>
+      </c>
+      <c r="X97" t="s">
         <v>490</v>
-      </c>
-      <c r="T97" t="s">
-        <v>42</v>
-      </c>
-      <c r="W97" t="s">
-        <v>42</v>
-      </c>
-      <c r="X97" t="s">
-        <v>491</v>
       </c>
       <c r="Y97" t="s">
         <v>68</v>
@@ -9867,10 +9872,10 @@
     </row>
     <row r="98" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>491</v>
+      </c>
+      <c r="B98" t="s">
         <v>492</v>
-      </c>
-      <c r="B98" t="s">
-        <v>493</v>
       </c>
       <c r="C98">
         <v>2018</v>
@@ -9885,16 +9890,16 @@
         <v>5</v>
       </c>
       <c r="G98" t="s">
+        <v>493</v>
+      </c>
+      <c r="H98" t="s">
         <v>494</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>495</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>496</v>
-      </c>
-      <c r="J98" t="s">
-        <v>497</v>
       </c>
       <c r="K98" t="s">
         <v>34</v>
@@ -9909,13 +9914,13 @@
         <v>35</v>
       </c>
       <c r="Q98" t="s">
+        <v>497</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S98" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="T98" t="s">
         <v>42</v>
@@ -9933,15 +9938,15 @@
         <v>1</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99" t="s">
         <v>500</v>
-      </c>
-      <c r="B99" t="s">
-        <v>501</v>
       </c>
       <c r="C99">
         <v>2018</v>
@@ -9953,16 +9958,16 @@
         <v>138</v>
       </c>
       <c r="G99" t="s">
+        <v>501</v>
+      </c>
+      <c r="H99" t="s">
         <v>502</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>503</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>504</v>
-      </c>
-      <c r="J99" t="s">
-        <v>505</v>
       </c>
       <c r="K99" t="s">
         <v>34</v>
@@ -9977,7 +9982,7 @@
         <v>38</v>
       </c>
       <c r="Q99" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R99" t="s">
         <v>42</v>
@@ -10000,31 +10005,31 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C100" s="2">
         <v>2018</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E100" s="2">
         <v>149</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>34</v>
@@ -10039,7 +10044,7 @@
         <v>35</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>42</v>
@@ -10052,7 +10057,7 @@
         <v>34</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>44</v>
@@ -10064,15 +10069,15 @@
         <v>1</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>514</v>
+      </c>
+      <c r="B101" t="s">
         <v>515</v>
-      </c>
-      <c r="B101" t="s">
-        <v>516</v>
       </c>
       <c r="C101">
         <v>2018</v>
@@ -10084,16 +10089,16 @@
         <v>137</v>
       </c>
       <c r="G101" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" t="s">
         <v>517</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>518</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>519</v>
-      </c>
-      <c r="J101" t="s">
-        <v>520</v>
       </c>
       <c r="K101" t="s">
         <v>34</v>
@@ -10127,21 +10132,21 @@
         <v>1</v>
       </c>
       <c r="AB101" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="102" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>520</v>
+      </c>
+      <c r="B102" t="s">
         <v>521</v>
-      </c>
-      <c r="B102" t="s">
-        <v>522</v>
       </c>
       <c r="C102">
         <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E102">
         <v>13</v>
@@ -10150,13 +10155,13 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
+        <v>522</v>
+      </c>
+      <c r="I102" t="s">
         <v>523</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>524</v>
-      </c>
-      <c r="J102" t="s">
-        <v>525</v>
       </c>
       <c r="K102" t="s">
         <v>34</v>
@@ -10171,13 +10176,13 @@
         <v>35</v>
       </c>
       <c r="Q102" t="s">
+        <v>525</v>
+      </c>
+      <c r="R102" t="s">
+        <v>34</v>
+      </c>
+      <c r="S102" t="s">
         <v>526</v>
-      </c>
-      <c r="R102" t="s">
-        <v>34</v>
-      </c>
-      <c r="S102" t="s">
-        <v>527</v>
       </c>
       <c r="T102" t="s">
         <v>34</v>
@@ -10186,13 +10191,13 @@
         <v>41</v>
       </c>
       <c r="V102" t="s">
+        <v>527</v>
+      </c>
+      <c r="W102" t="s">
+        <v>42</v>
+      </c>
+      <c r="X102" t="s">
         <v>528</v>
-      </c>
-      <c r="W102" t="s">
-        <v>42</v>
-      </c>
-      <c r="X102" t="s">
-        <v>529</v>
       </c>
       <c r="Y102" t="s">
         <v>68</v>
@@ -10206,10 +10211,10 @@
     </row>
     <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>529</v>
+      </c>
+      <c r="B103" t="s">
         <v>530</v>
-      </c>
-      <c r="B103" t="s">
-        <v>531</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -10221,28 +10226,28 @@
         <v>136</v>
       </c>
       <c r="G103" t="s">
+        <v>531</v>
+      </c>
+      <c r="H103" t="s">
         <v>532</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>533</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>534</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" t="s">
+        <v>34</v>
+      </c>
+      <c r="O103" t="s">
+        <v>42</v>
+      </c>
+      <c r="X103" t="s">
         <v>535</v>
-      </c>
-      <c r="K103" t="s">
-        <v>34</v>
-      </c>
-      <c r="M103" t="s">
-        <v>34</v>
-      </c>
-      <c r="O103" t="s">
-        <v>42</v>
-      </c>
-      <c r="X103" t="s">
-        <v>536</v>
       </c>
       <c r="Y103" t="s">
         <v>68</v>
@@ -10253,10 +10258,10 @@
     </row>
     <row r="104" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>536</v>
+      </c>
+      <c r="B104" t="s">
         <v>537</v>
-      </c>
-      <c r="B104" t="s">
-        <v>538</v>
       </c>
       <c r="C104">
         <v>2018</v>
@@ -10271,16 +10276,16 @@
         <v>13</v>
       </c>
       <c r="G104" t="s">
+        <v>538</v>
+      </c>
+      <c r="H104" t="s">
         <v>539</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>540</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>541</v>
-      </c>
-      <c r="J104" t="s">
-        <v>542</v>
       </c>
       <c r="K104" t="s">
         <v>34</v>
@@ -10295,13 +10300,13 @@
         <v>35</v>
       </c>
       <c r="Q104" t="s">
+        <v>542</v>
+      </c>
+      <c r="R104" t="s">
+        <v>34</v>
+      </c>
+      <c r="S104" t="s">
         <v>543</v>
-      </c>
-      <c r="R104" t="s">
-        <v>34</v>
-      </c>
-      <c r="S104" t="s">
-        <v>544</v>
       </c>
       <c r="T104" t="s">
         <v>42</v>
@@ -10321,10 +10326,10 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C105" s="2">
         <v>2018</v>
@@ -10339,16 +10344,16 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>34</v>
@@ -10363,13 +10368,13 @@
         <v>35</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R105" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>42</v>
@@ -10387,15 +10392,15 @@
         <v>1</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="C106" s="2">
         <v>2018</v>
@@ -10410,16 +10415,16 @@
         <v>2</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>34</v>
@@ -10434,7 +10439,7 @@
         <v>35</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R106" s="3" t="s">
         <v>42</v>
@@ -10447,7 +10452,7 @@
         <v>42</v>
       </c>
       <c r="X106" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Y106" s="2" t="s">
         <v>44</v>
@@ -10459,15 +10464,15 @@
         <v>1</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>559</v>
+      </c>
+      <c r="B107" t="s">
         <v>560</v>
-      </c>
-      <c r="B107" t="s">
-        <v>561</v>
       </c>
       <c r="C107">
         <v>2018</v>
@@ -10482,16 +10487,16 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
+        <v>561</v>
+      </c>
+      <c r="H107" t="s">
         <v>562</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>563</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>564</v>
-      </c>
-      <c r="J107" t="s">
-        <v>565</v>
       </c>
       <c r="K107" t="s">
         <v>34</v>
@@ -10506,13 +10511,13 @@
         <v>52</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S107" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T107" t="s">
         <v>42</v>
@@ -10530,15 +10535,15 @@
         <v>1</v>
       </c>
       <c r="AB107" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C108" s="2">
         <v>2017</v>
@@ -10553,16 +10558,16 @@
         <v>6</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>34</v>
@@ -10582,31 +10587,31 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C109" s="2">
         <v>2017</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E109" s="2">
         <v>195</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>34</v>
@@ -10626,31 +10631,31 @@
     </row>
     <row r="110" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>578</v>
+      </c>
+      <c r="B110" t="s">
         <v>579</v>
-      </c>
-      <c r="B110" t="s">
-        <v>580</v>
       </c>
       <c r="C110">
         <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E110">
         <v>142</v>
       </c>
       <c r="G110" t="s">
+        <v>580</v>
+      </c>
+      <c r="H110" t="s">
         <v>581</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>582</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>583</v>
-      </c>
-      <c r="J110" t="s">
-        <v>584</v>
       </c>
       <c r="K110" t="s">
         <v>34</v>
@@ -10665,13 +10670,13 @@
         <v>35</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="R110" t="s">
         <v>34</v>
       </c>
       <c r="S110" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="T110" t="s">
         <v>42</v>
@@ -10689,36 +10694,36 @@
         <v>1</v>
       </c>
       <c r="AB110" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>584</v>
+      </c>
+      <c r="B111" t="s">
         <v>585</v>
-      </c>
-      <c r="B111" t="s">
-        <v>586</v>
       </c>
       <c r="C111">
         <v>2017</v>
       </c>
       <c r="D111" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E111">
         <v>142</v>
       </c>
       <c r="G111" t="s">
+        <v>586</v>
+      </c>
+      <c r="H111" t="s">
         <v>587</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>588</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>589</v>
-      </c>
-      <c r="J111" t="s">
-        <v>590</v>
       </c>
       <c r="K111" t="s">
         <v>34</v>
@@ -10733,13 +10738,13 @@
         <v>52</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="R111" t="s">
         <v>34</v>
       </c>
       <c r="S111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="T111" t="s">
         <v>34</v>
@@ -10748,13 +10753,13 @@
         <v>52</v>
       </c>
       <c r="V111" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W111" t="s">
         <v>42</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y111" t="s">
         <v>40</v>
@@ -10766,15 +10771,15 @@
         <v>1</v>
       </c>
       <c r="AB111" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="112" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" t="s">
         <v>593</v>
-      </c>
-      <c r="B112" t="s">
-        <v>594</v>
       </c>
       <c r="C112">
         <v>2017</v>
@@ -10789,16 +10794,16 @@
         <v>9</v>
       </c>
       <c r="G112" t="s">
+        <v>594</v>
+      </c>
+      <c r="H112" t="s">
         <v>595</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>596</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>597</v>
-      </c>
-      <c r="J112" t="s">
-        <v>598</v>
       </c>
       <c r="K112" t="s">
         <v>34</v>
@@ -10813,13 +10818,13 @@
         <v>35</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="R112" t="s">
         <v>34</v>
       </c>
       <c r="S112" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="T112" t="s">
         <v>42</v>
@@ -10837,15 +10842,15 @@
         <v>1</v>
       </c>
       <c r="AB112" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="C113" s="2">
         <v>2017</v>
@@ -10860,13 +10865,13 @@
         <v>1860</v>
       </c>
       <c r="H113" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>34</v>
@@ -10881,13 +10886,13 @@
         <v>35</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="R113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>42</v>
@@ -10905,15 +10910,15 @@
         <v>1</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="114" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>604</v>
+      </c>
+      <c r="B114" t="s">
         <v>605</v>
-      </c>
-      <c r="B114" t="s">
-        <v>606</v>
       </c>
       <c r="C114">
         <v>2017</v>
@@ -10925,16 +10930,16 @@
         <v>130</v>
       </c>
       <c r="G114" t="s">
+        <v>606</v>
+      </c>
+      <c r="H114" t="s">
         <v>607</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>608</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>609</v>
-      </c>
-      <c r="J114" t="s">
-        <v>610</v>
       </c>
       <c r="K114" t="s">
         <v>34</v>
@@ -10954,16 +10959,16 @@
     </row>
     <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="C115" s="5">
         <v>2017</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E115" s="5">
         <v>141</v>
@@ -10972,16 +10977,16 @@
         <v>2</v>
       </c>
       <c r="G115" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>34</v>
@@ -10996,13 +11001,13 @@
         <v>35</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T115" s="5" t="s">
         <v>42</v>
@@ -11022,10 +11027,10 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C116" s="2">
         <v>2017</v>
@@ -11040,16 +11045,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>34</v>
@@ -11069,10 +11074,10 @@
     </row>
     <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>623</v>
+      </c>
+      <c r="B117" t="s">
         <v>624</v>
-      </c>
-      <c r="B117" t="s">
-        <v>625</v>
       </c>
       <c r="C117">
         <v>2017</v>
@@ -11084,16 +11089,16 @@
         <v>129</v>
       </c>
       <c r="G117" t="s">
+        <v>625</v>
+      </c>
+      <c r="H117" t="s">
         <v>626</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>627</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>628</v>
-      </c>
-      <c r="J117" t="s">
-        <v>629</v>
       </c>
       <c r="K117" t="s">
         <v>34</v>
@@ -11108,7 +11113,7 @@
         <v>35</v>
       </c>
       <c r="Q117" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R117" t="s">
         <v>42</v>
@@ -11134,16 +11139,16 @@
     </row>
     <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>630</v>
+      </c>
+      <c r="B118" t="s">
         <v>631</v>
-      </c>
-      <c r="B118" t="s">
-        <v>632</v>
       </c>
       <c r="C118">
         <v>2017</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118">
         <v>12</v>
@@ -11152,25 +11157,25 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
+        <v>632</v>
+      </c>
+      <c r="I118" t="s">
         <v>633</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>634</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" t="s">
+        <v>34</v>
+      </c>
+      <c r="O118" t="s">
+        <v>42</v>
+      </c>
+      <c r="X118" t="s">
         <v>635</v>
-      </c>
-      <c r="K118" t="s">
-        <v>34</v>
-      </c>
-      <c r="M118" t="s">
-        <v>34</v>
-      </c>
-      <c r="O118" t="s">
-        <v>42</v>
-      </c>
-      <c r="X118" t="s">
-        <v>636</v>
       </c>
       <c r="Y118" t="s">
         <v>40</v>
@@ -11181,10 +11186,10 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C119" s="2">
         <v>2017</v>
@@ -11196,16 +11201,16 @@
         <v>127</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>34</v>
@@ -11225,10 +11230,10 @@
     </row>
     <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>642</v>
+      </c>
+      <c r="B120" t="s">
         <v>643</v>
-      </c>
-      <c r="B120" t="s">
-        <v>644</v>
       </c>
       <c r="C120">
         <v>2017</v>
@@ -11243,16 +11248,16 @@
         <v>3</v>
       </c>
       <c r="G120" t="s">
+        <v>644</v>
+      </c>
+      <c r="H120" t="s">
         <v>645</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>646</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>647</v>
-      </c>
-      <c r="J120" t="s">
-        <v>648</v>
       </c>
       <c r="K120" t="s">
         <v>34</v>
@@ -11267,13 +11272,13 @@
         <v>35</v>
       </c>
       <c r="Q120" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S120" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T120" t="s">
         <v>42</v>
@@ -11291,15 +11296,15 @@
         <v>1</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="121" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>649</v>
+      </c>
+      <c r="B121" t="s">
         <v>650</v>
-      </c>
-      <c r="B121" t="s">
-        <v>651</v>
       </c>
       <c r="C121">
         <v>2017</v>
@@ -11311,16 +11316,16 @@
         <v>126</v>
       </c>
       <c r="G121" t="s">
+        <v>651</v>
+      </c>
+      <c r="H121" t="s">
         <v>652</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>653</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>654</v>
-      </c>
-      <c r="J121" t="s">
-        <v>655</v>
       </c>
       <c r="K121" t="s">
         <v>34</v>
@@ -11335,22 +11340,22 @@
         <v>52</v>
       </c>
       <c r="Q121" t="s">
+        <v>655</v>
+      </c>
+      <c r="R121" t="s">
+        <v>34</v>
+      </c>
+      <c r="S121" t="s">
         <v>656</v>
       </c>
-      <c r="R121" t="s">
-        <v>34</v>
-      </c>
-      <c r="S121" t="s">
+      <c r="T121" t="s">
+        <v>42</v>
+      </c>
+      <c r="W121" t="s">
+        <v>42</v>
+      </c>
+      <c r="X121" t="s">
         <v>657</v>
-      </c>
-      <c r="T121" t="s">
-        <v>42</v>
-      </c>
-      <c r="W121" t="s">
-        <v>42</v>
-      </c>
-      <c r="X121" t="s">
-        <v>658</v>
       </c>
       <c r="Y121" t="s">
         <v>68</v>
@@ -11364,10 +11369,10 @@
     </row>
     <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>658</v>
+      </c>
+      <c r="B122" t="s">
         <v>659</v>
-      </c>
-      <c r="B122" t="s">
-        <v>660</v>
       </c>
       <c r="C122">
         <v>2017</v>
@@ -11382,16 +11387,16 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
+        <v>660</v>
+      </c>
+      <c r="H122" t="s">
         <v>661</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>662</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>663</v>
-      </c>
-      <c r="J122" t="s">
-        <v>664</v>
       </c>
       <c r="K122" t="s">
         <v>34</v>
@@ -11411,31 +11416,31 @@
     </row>
     <row r="123" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>664</v>
+      </c>
+      <c r="B123" t="s">
         <v>665</v>
-      </c>
-      <c r="B123" t="s">
-        <v>666</v>
       </c>
       <c r="C123">
         <v>2017</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E123">
         <v>136</v>
       </c>
       <c r="G123" t="s">
+        <v>666</v>
+      </c>
+      <c r="H123" t="s">
         <v>667</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>668</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>669</v>
-      </c>
-      <c r="J123" t="s">
-        <v>670</v>
       </c>
       <c r="K123" t="s">
         <v>34</v>
@@ -11450,22 +11455,22 @@
         <v>35</v>
       </c>
       <c r="Q123" t="s">
+        <v>670</v>
+      </c>
+      <c r="R123" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" t="s">
+        <v>670</v>
+      </c>
+      <c r="T123" t="s">
+        <v>42</v>
+      </c>
+      <c r="W123" t="s">
+        <v>42</v>
+      </c>
+      <c r="X123" t="s">
         <v>671</v>
-      </c>
-      <c r="R123" t="s">
-        <v>42</v>
-      </c>
-      <c r="S123" t="s">
-        <v>671</v>
-      </c>
-      <c r="T123" t="s">
-        <v>42</v>
-      </c>
-      <c r="W123" t="s">
-        <v>42</v>
-      </c>
-      <c r="X123" t="s">
-        <v>672</v>
       </c>
       <c r="Y123" t="s">
         <v>68</v>
@@ -11479,31 +11484,31 @@
     </row>
     <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>672</v>
+      </c>
+      <c r="B124" t="s">
         <v>673</v>
-      </c>
-      <c r="B124" t="s">
-        <v>674</v>
       </c>
       <c r="C124">
         <v>2017</v>
       </c>
       <c r="D124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E124">
         <v>187</v>
       </c>
       <c r="G124" t="s">
+        <v>674</v>
+      </c>
+      <c r="H124" t="s">
         <v>675</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>676</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>677</v>
-      </c>
-      <c r="J124" t="s">
-        <v>678</v>
       </c>
       <c r="K124" t="s">
         <v>34</v>
@@ -11523,10 +11528,10 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C125" s="2">
         <v>2017</v>
@@ -11541,16 +11546,16 @@
         <v>9</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>34</v>
@@ -11570,10 +11575,10 @@
     </row>
     <row r="126" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="C126" s="6">
         <v>2017</v>
@@ -11588,16 +11593,16 @@
         <v>5</v>
       </c>
       <c r="G126" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="H126" s="6" t="s">
+      <c r="I126" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="J126" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>690</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>34</v>
@@ -11612,22 +11617,22 @@
         <v>52</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="R126" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S126" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="T126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U126" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V126" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="T126" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U126" s="7" t="s">
-        <v>1184</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="W126" s="6" t="s">
         <v>42</v>
@@ -11642,15 +11647,15 @@
         <v>1</v>
       </c>
       <c r="AB126" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="127" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>692</v>
+      </c>
+      <c r="B127" t="s">
         <v>693</v>
-      </c>
-      <c r="B127" t="s">
-        <v>694</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -11665,16 +11670,16 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
+        <v>694</v>
+      </c>
+      <c r="H127" t="s">
         <v>695</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>696</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>697</v>
-      </c>
-      <c r="J127" t="s">
-        <v>698</v>
       </c>
       <c r="K127" t="s">
         <v>34</v>
@@ -11689,13 +11694,13 @@
         <v>35</v>
       </c>
       <c r="Q127" t="s">
+        <v>698</v>
+      </c>
+      <c r="R127" t="s">
+        <v>34</v>
+      </c>
+      <c r="S127" t="s">
         <v>699</v>
-      </c>
-      <c r="R127" t="s">
-        <v>34</v>
-      </c>
-      <c r="S127" t="s">
-        <v>700</v>
       </c>
       <c r="T127" t="s">
         <v>34</v>
@@ -11704,7 +11709,7 @@
         <v>35</v>
       </c>
       <c r="V127" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="W127" t="s">
         <v>34</v>
@@ -11721,10 +11726,10 @@
     </row>
     <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>701</v>
+      </c>
+      <c r="B128" t="s">
         <v>702</v>
-      </c>
-      <c r="B128" t="s">
-        <v>703</v>
       </c>
       <c r="C128">
         <v>2017</v>
@@ -11739,16 +11744,16 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
+        <v>703</v>
+      </c>
+      <c r="H128" t="s">
         <v>704</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>705</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>706</v>
-      </c>
-      <c r="J128" t="s">
-        <v>707</v>
       </c>
       <c r="K128" t="s">
         <v>34</v>
@@ -11768,31 +11773,31 @@
     </row>
     <row r="129" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>707</v>
+      </c>
+      <c r="B129" t="s">
         <v>708</v>
-      </c>
-      <c r="B129" t="s">
-        <v>709</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E129">
         <v>134</v>
       </c>
       <c r="G129" t="s">
+        <v>709</v>
+      </c>
+      <c r="H129" t="s">
         <v>710</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>711</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>712</v>
-      </c>
-      <c r="J129" t="s">
-        <v>713</v>
       </c>
       <c r="K129" t="s">
         <v>34</v>
@@ -11807,13 +11812,13 @@
         <v>52</v>
       </c>
       <c r="Q129" t="s">
+        <v>713</v>
+      </c>
+      <c r="R129" t="s">
+        <v>34</v>
+      </c>
+      <c r="S129" t="s">
         <v>714</v>
-      </c>
-      <c r="R129" t="s">
-        <v>34</v>
-      </c>
-      <c r="S129" t="s">
-        <v>715</v>
       </c>
       <c r="T129" t="s">
         <v>42</v>
@@ -11833,31 +11838,31 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C130" s="2">
         <v>2017</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E130" s="2">
         <v>134</v>
       </c>
       <c r="G130" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>34</v>
@@ -11877,31 +11882,31 @@
     </row>
     <row r="131" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>721</v>
+      </c>
+      <c r="B131" t="s">
         <v>722</v>
-      </c>
-      <c r="B131" t="s">
-        <v>723</v>
       </c>
       <c r="C131">
         <v>2017</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E131">
         <v>134</v>
       </c>
       <c r="G131" t="s">
+        <v>723</v>
+      </c>
+      <c r="H131" t="s">
         <v>724</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>725</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>726</v>
-      </c>
-      <c r="J131" t="s">
-        <v>727</v>
       </c>
       <c r="K131" t="s">
         <v>34</v>
@@ -11916,22 +11921,22 @@
         <v>52</v>
       </c>
       <c r="Q131" t="s">
+        <v>727</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S131" t="s">
         <v>728</v>
       </c>
-      <c r="R131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S131" t="s">
+      <c r="T131" t="s">
+        <v>42</v>
+      </c>
+      <c r="W131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X131" t="s">
         <v>729</v>
-      </c>
-      <c r="T131" t="s">
-        <v>42</v>
-      </c>
-      <c r="W131" t="s">
-        <v>42</v>
-      </c>
-      <c r="X131" t="s">
-        <v>730</v>
       </c>
       <c r="Y131" t="s">
         <v>40</v>
@@ -11943,15 +11948,15 @@
         <v>1</v>
       </c>
       <c r="AB131" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>730</v>
+      </c>
+      <c r="B132" t="s">
         <v>731</v>
-      </c>
-      <c r="B132" t="s">
-        <v>732</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -11966,13 +11971,13 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
+        <v>732</v>
+      </c>
+      <c r="I132" t="s">
         <v>733</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>734</v>
-      </c>
-      <c r="J132" t="s">
-        <v>735</v>
       </c>
       <c r="K132" t="s">
         <v>34</v>
@@ -11987,13 +11992,13 @@
         <v>35</v>
       </c>
       <c r="Q132" t="s">
+        <v>735</v>
+      </c>
+      <c r="R132" t="s">
+        <v>42</v>
+      </c>
+      <c r="S132" t="s">
         <v>736</v>
-      </c>
-      <c r="R132" t="s">
-        <v>42</v>
-      </c>
-      <c r="S132" t="s">
-        <v>737</v>
       </c>
       <c r="T132" t="s">
         <v>34</v>
@@ -12002,13 +12007,13 @@
         <v>38</v>
       </c>
       <c r="V132" t="s">
+        <v>737</v>
+      </c>
+      <c r="W132" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" t="s">
         <v>738</v>
-      </c>
-      <c r="W132" t="s">
-        <v>42</v>
-      </c>
-      <c r="X132" t="s">
-        <v>739</v>
       </c>
       <c r="Y132" t="s">
         <v>68</v>
@@ -12022,10 +12027,10 @@
     </row>
     <row r="133" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>739</v>
+      </c>
+      <c r="B133" t="s">
         <v>740</v>
-      </c>
-      <c r="B133" t="s">
-        <v>741</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -12037,16 +12042,16 @@
         <v>123</v>
       </c>
       <c r="G133" t="s">
+        <v>741</v>
+      </c>
+      <c r="H133" t="s">
         <v>742</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>743</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>744</v>
-      </c>
-      <c r="J133" t="s">
-        <v>745</v>
       </c>
       <c r="K133" t="s">
         <v>34</v>
@@ -12061,13 +12066,13 @@
         <v>52</v>
       </c>
       <c r="Q133" t="s">
+        <v>745</v>
+      </c>
+      <c r="R133" t="s">
+        <v>34</v>
+      </c>
+      <c r="S133" t="s">
         <v>746</v>
-      </c>
-      <c r="R133" t="s">
-        <v>34</v>
-      </c>
-      <c r="S133" t="s">
-        <v>747</v>
       </c>
       <c r="T133" t="s">
         <v>34</v>
@@ -12076,13 +12081,13 @@
         <v>52</v>
       </c>
       <c r="V133" t="s">
+        <v>747</v>
+      </c>
+      <c r="W133" t="s">
+        <v>42</v>
+      </c>
+      <c r="X133" t="s">
         <v>748</v>
-      </c>
-      <c r="W133" t="s">
-        <v>42</v>
-      </c>
-      <c r="X133" t="s">
-        <v>749</v>
       </c>
       <c r="Y133" t="s">
         <v>68</v>
@@ -12096,10 +12101,10 @@
     </row>
     <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>749</v>
+      </c>
+      <c r="B134" t="s">
         <v>750</v>
-      </c>
-      <c r="B134" t="s">
-        <v>751</v>
       </c>
       <c r="C134">
         <v>2017</v>
@@ -12111,16 +12116,16 @@
         <v>123</v>
       </c>
       <c r="G134" t="s">
+        <v>751</v>
+      </c>
+      <c r="H134" t="s">
         <v>752</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>753</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>754</v>
-      </c>
-      <c r="J134" t="s">
-        <v>755</v>
       </c>
       <c r="K134" t="s">
         <v>34</v>
@@ -12135,13 +12140,13 @@
         <v>35</v>
       </c>
       <c r="Q134" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S134" t="s">
         <v>756</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S134" t="s">
-        <v>757</v>
       </c>
       <c r="T134" t="s">
         <v>34</v>
@@ -12150,7 +12155,7 @@
         <v>52</v>
       </c>
       <c r="V134" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="W134" t="s">
         <v>42</v>
@@ -12165,15 +12170,15 @@
         <v>1</v>
       </c>
       <c r="AB134" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="135" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>758</v>
+      </c>
+      <c r="B135" t="s">
         <v>759</v>
-      </c>
-      <c r="B135" t="s">
-        <v>760</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -12185,16 +12190,16 @@
         <v>123</v>
       </c>
       <c r="G135" t="s">
+        <v>760</v>
+      </c>
+      <c r="H135" t="s">
         <v>761</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>762</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>763</v>
-      </c>
-      <c r="J135" t="s">
-        <v>764</v>
       </c>
       <c r="K135" t="s">
         <v>34</v>
@@ -12209,13 +12214,13 @@
         <v>35</v>
       </c>
       <c r="Q135" t="s">
+        <v>764</v>
+      </c>
+      <c r="R135" t="s">
+        <v>34</v>
+      </c>
+      <c r="S135" t="s">
         <v>765</v>
-      </c>
-      <c r="R135" t="s">
-        <v>34</v>
-      </c>
-      <c r="S135" t="s">
-        <v>766</v>
       </c>
       <c r="T135" t="s">
         <v>34</v>
@@ -12238,10 +12243,10 @@
     </row>
     <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>766</v>
+      </c>
+      <c r="B136" t="s">
         <v>767</v>
-      </c>
-      <c r="B136" t="s">
-        <v>768</v>
       </c>
       <c r="C136">
         <v>2016</v>
@@ -12256,31 +12261,31 @@
         <v>1844</v>
       </c>
       <c r="H136" t="s">
+        <v>768</v>
+      </c>
+      <c r="I136" t="s">
         <v>769</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>770</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" t="s">
+        <v>34</v>
+      </c>
+      <c r="O136" t="s">
+        <v>34</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q136" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="K136" t="s">
-        <v>34</v>
-      </c>
-      <c r="M136" t="s">
-        <v>34</v>
-      </c>
-      <c r="O136" t="s">
-        <v>34</v>
-      </c>
-      <c r="P136" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="Q136" s="4" t="s">
-        <v>772</v>
-      </c>
       <c r="R136" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="T136" t="s">
         <v>42</v>
@@ -12298,15 +12303,15 @@
         <v>1</v>
       </c>
       <c r="AB136" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="137" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>772</v>
+      </c>
+      <c r="B137" t="s">
         <v>773</v>
-      </c>
-      <c r="B137" t="s">
-        <v>774</v>
       </c>
       <c r="C137">
         <v>2016</v>
@@ -12318,16 +12323,16 @@
         <v>122</v>
       </c>
       <c r="G137" t="s">
+        <v>774</v>
+      </c>
+      <c r="H137" t="s">
         <v>775</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>776</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>777</v>
-      </c>
-      <c r="J137" t="s">
-        <v>778</v>
       </c>
       <c r="K137" t="s">
         <v>34</v>
@@ -12342,22 +12347,22 @@
         <v>35</v>
       </c>
       <c r="Q137" t="s">
+        <v>778</v>
+      </c>
+      <c r="R137" t="s">
+        <v>42</v>
+      </c>
+      <c r="S137" t="s">
         <v>779</v>
       </c>
-      <c r="R137" t="s">
-        <v>42</v>
-      </c>
-      <c r="S137" t="s">
+      <c r="T137" t="s">
+        <v>42</v>
+      </c>
+      <c r="W137" t="s">
+        <v>42</v>
+      </c>
+      <c r="X137" t="s">
         <v>780</v>
-      </c>
-      <c r="T137" t="s">
-        <v>42</v>
-      </c>
-      <c r="W137" t="s">
-        <v>42</v>
-      </c>
-      <c r="X137" t="s">
-        <v>781</v>
       </c>
       <c r="Y137" t="s">
         <v>68</v>
@@ -12371,10 +12376,10 @@
     </row>
     <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>781</v>
+      </c>
+      <c r="B138" t="s">
         <v>782</v>
-      </c>
-      <c r="B138" t="s">
-        <v>783</v>
       </c>
       <c r="C138">
         <v>2016</v>
@@ -12389,16 +12394,16 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
+        <v>783</v>
+      </c>
+      <c r="H138" t="s">
         <v>784</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>785</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>786</v>
-      </c>
-      <c r="J138" t="s">
-        <v>787</v>
       </c>
       <c r="K138" t="s">
         <v>34</v>
@@ -12413,7 +12418,7 @@
         <v>35</v>
       </c>
       <c r="Q138" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R138" t="s">
         <v>42</v>
@@ -12436,10 +12441,10 @@
     </row>
     <row r="139" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>788</v>
+      </c>
+      <c r="B139" t="s">
         <v>789</v>
-      </c>
-      <c r="B139" t="s">
-        <v>790</v>
       </c>
       <c r="C139">
         <v>2016</v>
@@ -12454,16 +12459,16 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
+        <v>790</v>
+      </c>
+      <c r="H139" t="s">
         <v>791</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>792</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>793</v>
-      </c>
-      <c r="J139" t="s">
-        <v>794</v>
       </c>
       <c r="K139" t="s">
         <v>34</v>
@@ -12478,28 +12483,28 @@
         <v>35</v>
       </c>
       <c r="Q139" t="s">
+        <v>794</v>
+      </c>
+      <c r="R139" t="s">
+        <v>34</v>
+      </c>
+      <c r="S139" t="s">
         <v>795</v>
       </c>
-      <c r="R139" t="s">
-        <v>34</v>
-      </c>
-      <c r="S139" t="s">
+      <c r="T139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="V139" t="s">
         <v>796</v>
       </c>
-      <c r="T139" t="s">
-        <v>34</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="V139" t="s">
+      <c r="W139" t="s">
+        <v>42</v>
+      </c>
+      <c r="X139" t="s">
         <v>797</v>
-      </c>
-      <c r="W139" t="s">
-        <v>42</v>
-      </c>
-      <c r="X139" t="s">
-        <v>798</v>
       </c>
       <c r="Y139" t="s">
         <v>68</v>
@@ -12511,15 +12516,15 @@
         <v>1</v>
       </c>
       <c r="AB139" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>798</v>
+      </c>
+      <c r="B140" t="s">
         <v>799</v>
-      </c>
-      <c r="B140" t="s">
-        <v>800</v>
       </c>
       <c r="C140">
         <v>2016</v>
@@ -12534,28 +12539,28 @@
         <v>6</v>
       </c>
       <c r="G140" t="s">
+        <v>800</v>
+      </c>
+      <c r="H140" t="s">
         <v>801</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>802</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>803</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
+        <v>34</v>
+      </c>
+      <c r="M140" t="s">
+        <v>34</v>
+      </c>
+      <c r="O140" t="s">
+        <v>42</v>
+      </c>
+      <c r="X140" t="s">
         <v>804</v>
-      </c>
-      <c r="K140" t="s">
-        <v>34</v>
-      </c>
-      <c r="M140" t="s">
-        <v>34</v>
-      </c>
-      <c r="O140" t="s">
-        <v>42</v>
-      </c>
-      <c r="X140" t="s">
-        <v>805</v>
       </c>
       <c r="Y140" t="s">
         <v>40</v>
@@ -12566,10 +12571,10 @@
     </row>
     <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>805</v>
+      </c>
+      <c r="B141" t="s">
         <v>806</v>
-      </c>
-      <c r="B141" t="s">
-        <v>807</v>
       </c>
       <c r="C141">
         <v>2016</v>
@@ -12584,16 +12589,16 @@
         <v>6</v>
       </c>
       <c r="G141" t="s">
+        <v>807</v>
+      </c>
+      <c r="H141" t="s">
         <v>808</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>809</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>810</v>
-      </c>
-      <c r="J141" t="s">
-        <v>811</v>
       </c>
       <c r="K141" t="s">
         <v>34</v>
@@ -12608,7 +12613,7 @@
         <v>35</v>
       </c>
       <c r="Q141" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R141" t="s">
         <v>42</v>
@@ -12631,10 +12636,10 @@
     </row>
     <row r="142" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>812</v>
+      </c>
+      <c r="B142" t="s">
         <v>813</v>
-      </c>
-      <c r="B142" t="s">
-        <v>814</v>
       </c>
       <c r="C142">
         <v>2016</v>
@@ -12649,28 +12654,28 @@
         <v>6</v>
       </c>
       <c r="G142" t="s">
+        <v>814</v>
+      </c>
+      <c r="H142" t="s">
         <v>815</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>816</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>817</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
+        <v>34</v>
+      </c>
+      <c r="M142" t="s">
+        <v>34</v>
+      </c>
+      <c r="O142" t="s">
+        <v>42</v>
+      </c>
+      <c r="X142" t="s">
         <v>818</v>
-      </c>
-      <c r="K142" t="s">
-        <v>34</v>
-      </c>
-      <c r="M142" t="s">
-        <v>34</v>
-      </c>
-      <c r="O142" t="s">
-        <v>42</v>
-      </c>
-      <c r="X142" t="s">
-        <v>819</v>
       </c>
       <c r="Y142" t="s">
         <v>40</v>
@@ -12681,31 +12686,31 @@
     </row>
     <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>819</v>
+      </c>
+      <c r="B143" t="s">
         <v>820</v>
-      </c>
-      <c r="B143" t="s">
-        <v>821</v>
       </c>
       <c r="C143">
         <v>2016</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E143">
         <v>132</v>
       </c>
       <c r="G143" t="s">
+        <v>821</v>
+      </c>
+      <c r="H143" t="s">
         <v>822</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>823</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>824</v>
-      </c>
-      <c r="J143" t="s">
-        <v>825</v>
       </c>
       <c r="K143" t="s">
         <v>34</v>
@@ -12720,13 +12725,13 @@
         <v>35</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="R143" t="s">
         <v>34</v>
       </c>
       <c r="S143" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="T143" t="s">
         <v>42</v>
@@ -12744,15 +12749,15 @@
         <v>1</v>
       </c>
       <c r="AB143" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="144" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>826</v>
+      </c>
+      <c r="B144" t="s">
         <v>827</v>
-      </c>
-      <c r="B144" t="s">
-        <v>828</v>
       </c>
       <c r="C144">
         <v>2016</v>
@@ -12767,16 +12772,16 @@
         <v>11</v>
       </c>
       <c r="G144" t="s">
+        <v>828</v>
+      </c>
+      <c r="H144" t="s">
         <v>829</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>830</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>831</v>
-      </c>
-      <c r="J144" t="s">
-        <v>832</v>
       </c>
       <c r="K144" t="s">
         <v>34</v>
@@ -12791,22 +12796,22 @@
         <v>52</v>
       </c>
       <c r="Q144" t="s">
+        <v>832</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S144" t="s">
+        <v>832</v>
+      </c>
+      <c r="T144" t="s">
+        <v>42</v>
+      </c>
+      <c r="W144" t="s">
+        <v>34</v>
+      </c>
+      <c r="X144" t="s">
         <v>833</v>
-      </c>
-      <c r="R144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S144" t="s">
-        <v>833</v>
-      </c>
-      <c r="T144" t="s">
-        <v>42</v>
-      </c>
-      <c r="W144" t="s">
-        <v>34</v>
-      </c>
-      <c r="X144" t="s">
-        <v>834</v>
       </c>
       <c r="Y144" t="s">
         <v>68</v>
@@ -12818,15 +12823,15 @@
         <v>1</v>
       </c>
       <c r="AB144" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="C145" s="2">
         <v>2016</v>
@@ -12838,16 +12843,16 @@
         <v>120</v>
       </c>
       <c r="G145" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>34</v>
@@ -12862,22 +12867,22 @@
         <v>52</v>
       </c>
       <c r="Q145" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X145" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S145" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="T145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X145" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="Y145" s="2" t="s">
         <v>44</v>
@@ -12889,15 +12894,15 @@
         <v>1</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="146" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>842</v>
+      </c>
+      <c r="B146" t="s">
         <v>843</v>
-      </c>
-      <c r="B146" t="s">
-        <v>844</v>
       </c>
       <c r="C146">
         <v>2016</v>
@@ -12912,16 +12917,16 @@
         <v>5</v>
       </c>
       <c r="G146" t="s">
+        <v>844</v>
+      </c>
+      <c r="H146" t="s">
         <v>845</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>846</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>847</v>
-      </c>
-      <c r="J146" t="s">
-        <v>848</v>
       </c>
       <c r="K146" t="s">
         <v>34</v>
@@ -12943,7 +12948,7 @@
         <v>42</v>
       </c>
       <c r="X146" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Y146" t="s">
         <v>68</v>
@@ -12955,15 +12960,15 @@
         <v>1</v>
       </c>
       <c r="AB146" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>849</v>
+      </c>
+      <c r="B147" t="s">
         <v>850</v>
-      </c>
-      <c r="B147" t="s">
-        <v>851</v>
       </c>
       <c r="C147">
         <v>2016</v>
@@ -12978,16 +12983,16 @@
         <v>9</v>
       </c>
       <c r="G147" t="s">
+        <v>851</v>
+      </c>
+      <c r="H147" t="s">
         <v>852</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>853</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>854</v>
-      </c>
-      <c r="J147" t="s">
-        <v>855</v>
       </c>
       <c r="K147" t="s">
         <v>34</v>
@@ -13010,43 +13015,43 @@
     </row>
     <row r="148" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>855</v>
+      </c>
+      <c r="B148" t="s">
         <v>856</v>
-      </c>
-      <c r="B148" t="s">
-        <v>857</v>
       </c>
       <c r="C148">
         <v>2016</v>
       </c>
       <c r="D148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E148">
         <v>181</v>
       </c>
       <c r="G148" t="s">
+        <v>857</v>
+      </c>
+      <c r="H148" t="s">
         <v>858</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>859</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>860</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
+        <v>34</v>
+      </c>
+      <c r="M148" t="s">
+        <v>34</v>
+      </c>
+      <c r="O148" t="s">
+        <v>42</v>
+      </c>
+      <c r="X148" t="s">
         <v>861</v>
-      </c>
-      <c r="K148" t="s">
-        <v>34</v>
-      </c>
-      <c r="M148" t="s">
-        <v>34</v>
-      </c>
-      <c r="O148" t="s">
-        <v>42</v>
-      </c>
-      <c r="X148" t="s">
-        <v>862</v>
       </c>
       <c r="Y148" t="s">
         <v>68</v>
@@ -13057,10 +13062,10 @@
     </row>
     <row r="149" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>862</v>
+      </c>
+      <c r="B149" t="s">
         <v>863</v>
-      </c>
-      <c r="B149" t="s">
-        <v>864</v>
       </c>
       <c r="C149">
         <v>2016</v>
@@ -13072,16 +13077,16 @@
         <v>117</v>
       </c>
       <c r="G149" t="s">
+        <v>864</v>
+      </c>
+      <c r="H149" t="s">
         <v>865</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>866</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>867</v>
-      </c>
-      <c r="J149" t="s">
-        <v>868</v>
       </c>
       <c r="K149" t="s">
         <v>34</v>
@@ -13101,43 +13106,43 @@
     </row>
     <row r="150" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>868</v>
+      </c>
+      <c r="B150" t="s">
         <v>869</v>
-      </c>
-      <c r="B150" t="s">
-        <v>870</v>
       </c>
       <c r="C150">
         <v>2016</v>
       </c>
       <c r="D150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E150">
         <v>180</v>
       </c>
       <c r="G150" t="s">
+        <v>870</v>
+      </c>
+      <c r="H150" t="s">
         <v>871</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>872</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>873</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" t="s">
+        <v>42</v>
+      </c>
+      <c r="X150" t="s">
         <v>874</v>
-      </c>
-      <c r="K150" t="s">
-        <v>34</v>
-      </c>
-      <c r="M150" t="s">
-        <v>34</v>
-      </c>
-      <c r="O150" t="s">
-        <v>42</v>
-      </c>
-      <c r="X150" t="s">
-        <v>875</v>
       </c>
       <c r="Y150" t="s">
         <v>40</v>
@@ -13148,10 +13153,10 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C151" s="2">
         <v>2016</v>
@@ -13166,16 +13171,16 @@
         <v>7</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>34</v>
@@ -13195,10 +13200,10 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="C152" s="2">
         <v>2016</v>
@@ -13210,16 +13215,16 @@
         <v>116</v>
       </c>
       <c r="G152" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>887</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>34</v>
@@ -13234,7 +13239,7 @@
         <v>35</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R152" s="3" t="s">
         <v>42</v>
@@ -13247,7 +13252,7 @@
         <v>35</v>
       </c>
       <c r="V152" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="W152" s="2" t="s">
         <v>42</v>
@@ -13262,15 +13267,15 @@
         <v>1</v>
       </c>
       <c r="AB152" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="153" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>889</v>
+      </c>
+      <c r="B153" t="s">
         <v>890</v>
-      </c>
-      <c r="B153" t="s">
-        <v>891</v>
       </c>
       <c r="C153">
         <v>2016</v>
@@ -13285,16 +13290,16 @@
         <v>6</v>
       </c>
       <c r="G153" t="s">
+        <v>891</v>
+      </c>
+      <c r="H153" t="s">
         <v>892</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>893</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>894</v>
-      </c>
-      <c r="J153" t="s">
-        <v>895</v>
       </c>
       <c r="K153" t="s">
         <v>34</v>
@@ -13314,10 +13319,10 @@
     </row>
     <row r="154" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>895</v>
+      </c>
+      <c r="B154" t="s">
         <v>896</v>
-      </c>
-      <c r="B154" t="s">
-        <v>897</v>
       </c>
       <c r="C154">
         <v>2016</v>
@@ -13332,16 +13337,16 @@
         <v>6</v>
       </c>
       <c r="G154" t="s">
+        <v>897</v>
+      </c>
+      <c r="H154" t="s">
         <v>898</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>899</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>900</v>
-      </c>
-      <c r="J154" t="s">
-        <v>901</v>
       </c>
       <c r="K154" t="s">
         <v>34</v>
@@ -13356,19 +13361,19 @@
         <v>52</v>
       </c>
       <c r="Q154" t="s">
+        <v>901</v>
+      </c>
+      <c r="R154" t="s">
+        <v>42</v>
+      </c>
+      <c r="T154" t="s">
+        <v>42</v>
+      </c>
+      <c r="W154" t="s">
+        <v>42</v>
+      </c>
+      <c r="X154" t="s">
         <v>902</v>
-      </c>
-      <c r="R154" t="s">
-        <v>42</v>
-      </c>
-      <c r="T154" t="s">
-        <v>42</v>
-      </c>
-      <c r="W154" t="s">
-        <v>42</v>
-      </c>
-      <c r="X154" t="s">
-        <v>903</v>
       </c>
       <c r="Y154" t="s">
         <v>68</v>
@@ -13382,10 +13387,10 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="C155" s="2">
         <v>2016</v>
@@ -13400,16 +13405,16 @@
         <v>3</v>
       </c>
       <c r="G155" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>34</v>
@@ -13429,10 +13434,10 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="C156" s="2">
         <v>2016</v>
@@ -13444,16 +13449,16 @@
         <v>115</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H156" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>34</v>
@@ -13473,10 +13478,10 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="C157" s="2">
         <v>2016</v>
@@ -13491,16 +13496,16 @@
         <v>5</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="I157" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>34</v>
@@ -13515,7 +13520,7 @@
         <v>35</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="R157" s="3" t="s">
         <v>42</v>
@@ -13540,15 +13545,15 @@
         <v>1</v>
       </c>
       <c r="AB157" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="C158" s="2">
         <v>2016</v>
@@ -13563,16 +13568,16 @@
         <v>5</v>
       </c>
       <c r="G158" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="J158" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>34</v>
@@ -13592,10 +13597,10 @@
     </row>
     <row r="159" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>927</v>
+      </c>
+      <c r="B159" t="s">
         <v>928</v>
-      </c>
-      <c r="B159" t="s">
-        <v>929</v>
       </c>
       <c r="C159">
         <v>2016</v>
@@ -13610,16 +13615,16 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
+        <v>929</v>
+      </c>
+      <c r="H159" t="s">
         <v>930</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>931</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>932</v>
-      </c>
-      <c r="J159" t="s">
-        <v>933</v>
       </c>
       <c r="K159" t="s">
         <v>34</v>
@@ -13634,13 +13639,13 @@
         <v>52</v>
       </c>
       <c r="Q159" t="s">
+        <v>933</v>
+      </c>
+      <c r="R159" t="s">
+        <v>34</v>
+      </c>
+      <c r="S159" t="s">
         <v>934</v>
-      </c>
-      <c r="R159" t="s">
-        <v>34</v>
-      </c>
-      <c r="S159" t="s">
-        <v>935</v>
       </c>
       <c r="T159" t="s">
         <v>42</v>
@@ -13660,10 +13665,10 @@
     </row>
     <row r="160" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>935</v>
+      </c>
+      <c r="B160" t="s">
         <v>936</v>
-      </c>
-      <c r="B160" t="s">
-        <v>937</v>
       </c>
       <c r="C160">
         <v>2016</v>
@@ -13675,16 +13680,16 @@
         <v>114</v>
       </c>
       <c r="G160" t="s">
+        <v>937</v>
+      </c>
+      <c r="H160" t="s">
         <v>938</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>939</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>940</v>
-      </c>
-      <c r="J160" t="s">
-        <v>941</v>
       </c>
       <c r="K160" t="s">
         <v>34</v>
@@ -13704,10 +13709,10 @@
     </row>
     <row r="161" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>941</v>
+      </c>
+      <c r="B161" t="s">
         <v>942</v>
-      </c>
-      <c r="B161" t="s">
-        <v>943</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -13722,16 +13727,16 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
+        <v>943</v>
+      </c>
+      <c r="H161" t="s">
         <v>944</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>945</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>946</v>
-      </c>
-      <c r="J161" t="s">
-        <v>947</v>
       </c>
       <c r="K161" t="s">
         <v>34</v>
@@ -13746,13 +13751,13 @@
         <v>35</v>
       </c>
       <c r="Q161" t="s">
+        <v>947</v>
+      </c>
+      <c r="R161" t="s">
+        <v>34</v>
+      </c>
+      <c r="S161" t="s">
         <v>948</v>
-      </c>
-      <c r="R161" t="s">
-        <v>34</v>
-      </c>
-      <c r="S161" t="s">
-        <v>949</v>
       </c>
       <c r="T161" t="s">
         <v>34</v>
@@ -13761,7 +13766,7 @@
         <v>35</v>
       </c>
       <c r="V161" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="W161" t="s">
         <v>42</v>
@@ -13778,10 +13783,10 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="C162" s="2">
         <v>2016</v>
@@ -13793,16 +13798,16 @@
         <v>112</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="I162" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="J162" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>34</v>
@@ -13817,7 +13822,7 @@
         <v>52</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>42</v>
@@ -13840,10 +13845,10 @@
     </row>
     <row r="163" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>957</v>
+      </c>
+      <c r="B163" t="s">
         <v>958</v>
-      </c>
-      <c r="B163" t="s">
-        <v>959</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -13858,25 +13863,25 @@
         <v>1823</v>
       </c>
       <c r="H163" t="s">
+        <v>959</v>
+      </c>
+      <c r="I163" t="s">
         <v>960</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>961</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163" t="s">
+        <v>34</v>
+      </c>
+      <c r="O163" t="s">
+        <v>42</v>
+      </c>
+      <c r="X163" t="s">
         <v>962</v>
-      </c>
-      <c r="K163" t="s">
-        <v>34</v>
-      </c>
-      <c r="M163" t="s">
-        <v>34</v>
-      </c>
-      <c r="O163" t="s">
-        <v>42</v>
-      </c>
-      <c r="X163" t="s">
-        <v>963</v>
       </c>
       <c r="Y163" t="s">
         <v>40</v>
@@ -13887,10 +13892,10 @@
     </row>
     <row r="164" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>963</v>
+      </c>
+      <c r="B164" t="s">
         <v>964</v>
-      </c>
-      <c r="B164" t="s">
-        <v>965</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -13905,16 +13910,16 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
+        <v>965</v>
+      </c>
+      <c r="H164" t="s">
         <v>966</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>967</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>968</v>
-      </c>
-      <c r="J164" t="s">
-        <v>969</v>
       </c>
       <c r="K164" t="s">
         <v>34</v>
@@ -13929,19 +13934,19 @@
         <v>35</v>
       </c>
       <c r="Q164" t="s">
+        <v>969</v>
+      </c>
+      <c r="R164" t="s">
+        <v>42</v>
+      </c>
+      <c r="T164" t="s">
+        <v>42</v>
+      </c>
+      <c r="W164" t="s">
+        <v>42</v>
+      </c>
+      <c r="X164" t="s">
         <v>970</v>
-      </c>
-      <c r="R164" t="s">
-        <v>42</v>
-      </c>
-      <c r="T164" t="s">
-        <v>42</v>
-      </c>
-      <c r="W164" t="s">
-        <v>42</v>
-      </c>
-      <c r="X164" t="s">
-        <v>971</v>
       </c>
       <c r="Y164" t="s">
         <v>68</v>
@@ -13955,10 +13960,10 @@
     </row>
     <row r="165" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>973</v>
       </c>
       <c r="C165" s="6">
         <v>2016</v>
@@ -13973,16 +13978,16 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="H165" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="I165" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="J165" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>977</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>34</v>
@@ -13997,22 +14002,22 @@
         <v>52</v>
       </c>
       <c r="Q165" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="R165" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="R165" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S165" s="6" t="s">
+      <c r="T165" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W165" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X165" s="6" t="s">
         <v>979</v>
-      </c>
-      <c r="T165" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W165" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X165" s="6" t="s">
-        <v>980</v>
       </c>
       <c r="Y165" s="6" t="s">
         <v>40</v>
@@ -14024,15 +14029,15 @@
         <v>1</v>
       </c>
       <c r="AB165" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="166" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>980</v>
+      </c>
+      <c r="B166" t="s">
         <v>981</v>
-      </c>
-      <c r="B166" t="s">
-        <v>982</v>
       </c>
       <c r="C166">
         <v>2016</v>
@@ -14047,16 +14052,16 @@
         <v>13</v>
       </c>
       <c r="G166" t="s">
+        <v>982</v>
+      </c>
+      <c r="H166" t="s">
         <v>983</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>984</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>985</v>
-      </c>
-      <c r="J166" t="s">
-        <v>986</v>
       </c>
       <c r="K166" t="s">
         <v>34</v>
@@ -14076,10 +14081,10 @@
     </row>
     <row r="167" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>986</v>
+      </c>
+      <c r="B167" t="s">
         <v>987</v>
-      </c>
-      <c r="B167" t="s">
-        <v>988</v>
       </c>
       <c r="C167">
         <v>2016</v>
@@ -14094,28 +14099,28 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
+        <v>988</v>
+      </c>
+      <c r="H167" t="s">
         <v>989</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>990</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>991</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167" t="s">
+        <v>34</v>
+      </c>
+      <c r="O167" t="s">
+        <v>42</v>
+      </c>
+      <c r="X167" t="s">
         <v>992</v>
-      </c>
-      <c r="K167" t="s">
-        <v>34</v>
-      </c>
-      <c r="M167" t="s">
-        <v>34</v>
-      </c>
-      <c r="O167" t="s">
-        <v>42</v>
-      </c>
-      <c r="X167" t="s">
-        <v>993</v>
       </c>
       <c r="Y167" t="s">
         <v>68</v>
@@ -14126,10 +14131,10 @@
     </row>
     <row r="168" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>993</v>
+      </c>
+      <c r="B168" t="s">
         <v>994</v>
-      </c>
-      <c r="B168" t="s">
-        <v>995</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -14144,28 +14149,28 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
+        <v>995</v>
+      </c>
+      <c r="H168" t="s">
         <v>996</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>997</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>998</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
+        <v>34</v>
+      </c>
+      <c r="M168" t="s">
+        <v>34</v>
+      </c>
+      <c r="O168" t="s">
+        <v>42</v>
+      </c>
+      <c r="X168" t="s">
         <v>999</v>
-      </c>
-      <c r="K168" t="s">
-        <v>34</v>
-      </c>
-      <c r="M168" t="s">
-        <v>34</v>
-      </c>
-      <c r="O168" t="s">
-        <v>42</v>
-      </c>
-      <c r="X168" t="s">
-        <v>1000</v>
       </c>
       <c r="Y168" t="s">
         <v>40</v>
@@ -14176,10 +14181,10 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="C169" s="2">
         <v>2016</v>
@@ -14194,16 +14199,16 @@
         <v>3</v>
       </c>
       <c r="G169" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="H169" s="2" t="s">
+      <c r="I169" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="J169" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>34</v>
@@ -14218,13 +14223,13 @@
         <v>35</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>42</v>
@@ -14242,15 +14247,15 @@
         <v>1</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="170" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B170" t="s">
         <v>1008</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1009</v>
       </c>
       <c r="C170">
         <v>2016</v>
@@ -14265,16 +14270,16 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H170" t="s">
         <v>1010</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>1011</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>1012</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1013</v>
       </c>
       <c r="K170" t="s">
         <v>34</v>
@@ -14289,13 +14294,13 @@
         <v>35</v>
       </c>
       <c r="Q170" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S170" t="s">
         <v>1014</v>
-      </c>
-      <c r="R170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S170" t="s">
-        <v>1015</v>
       </c>
       <c r="T170" t="s">
         <v>34</v>
@@ -14304,7 +14309,7 @@
         <v>35</v>
       </c>
       <c r="V170" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W170" t="s">
         <v>42</v>
@@ -14319,15 +14324,15 @@
         <v>1</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="171" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B171" t="s">
         <v>1017</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1018</v>
       </c>
       <c r="C171">
         <v>2016</v>
@@ -14342,22 +14347,22 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H171" t="s">
         <v>1019</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>1020</v>
       </c>
-      <c r="I171" t="s">
+      <c r="K171" t="s">
+        <v>34</v>
+      </c>
+      <c r="M171" t="s">
+        <v>42</v>
+      </c>
+      <c r="N171" t="s">
         <v>1021</v>
-      </c>
-      <c r="K171" t="s">
-        <v>34</v>
-      </c>
-      <c r="M171" t="s">
-        <v>42</v>
-      </c>
-      <c r="N171" t="s">
-        <v>1022</v>
       </c>
       <c r="Y171" t="s">
         <v>68</v>
@@ -14368,10 +14373,10 @@
     </row>
     <row r="172" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B172" t="s">
         <v>1023</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1024</v>
       </c>
       <c r="C172">
         <v>2015</v>
@@ -14383,16 +14388,16 @@
         <v>110</v>
       </c>
       <c r="G172" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H172" t="s">
         <v>1025</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>1026</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>1027</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1028</v>
       </c>
       <c r="K172" t="s">
         <v>34</v>
@@ -14407,13 +14412,13 @@
         <v>52</v>
       </c>
       <c r="Q172" t="s">
+        <v>1028</v>
+      </c>
+      <c r="R172" t="s">
+        <v>34</v>
+      </c>
+      <c r="S172" t="s">
         <v>1029</v>
-      </c>
-      <c r="R172" t="s">
-        <v>34</v>
-      </c>
-      <c r="S172" t="s">
-        <v>1030</v>
       </c>
       <c r="T172" t="s">
         <v>42</v>
@@ -14431,15 +14436,15 @@
         <v>1</v>
       </c>
       <c r="AB172" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="173" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B173" t="s">
         <v>1031</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1032</v>
       </c>
       <c r="C173">
         <v>2015</v>
@@ -14454,13 +14459,13 @@
         <v>1819</v>
       </c>
       <c r="H173" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I173" t="s">
         <v>1033</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>1034</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1035</v>
       </c>
       <c r="K173" t="s">
         <v>34</v>
@@ -14475,7 +14480,7 @@
         <v>35</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="R173" t="s">
         <v>42</v>
@@ -14496,21 +14501,21 @@
         <v>1</v>
       </c>
       <c r="AB173" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="174" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B174" t="s">
         <v>1036</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1037</v>
       </c>
       <c r="C174">
         <v>2015</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E174">
         <v>10</v>
@@ -14519,25 +14524,25 @@
         <v>10</v>
       </c>
       <c r="H174" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I174" t="s">
         <v>1038</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>1039</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O174" t="s">
+        <v>42</v>
+      </c>
+      <c r="X174" t="s">
         <v>1040</v>
-      </c>
-      <c r="K174" t="s">
-        <v>34</v>
-      </c>
-      <c r="M174" t="s">
-        <v>34</v>
-      </c>
-      <c r="O174" t="s">
-        <v>42</v>
-      </c>
-      <c r="X174" t="s">
-        <v>1041</v>
       </c>
       <c r="Y174" t="s">
         <v>40</v>
@@ -14548,10 +14553,10 @@
     </row>
     <row r="175" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B175" t="s">
         <v>1042</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1043</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -14566,16 +14571,16 @@
         <v>5</v>
       </c>
       <c r="G175" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H175" t="s">
         <v>1044</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>1045</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>1046</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1047</v>
       </c>
       <c r="K175" t="s">
         <v>34</v>
@@ -14590,7 +14595,7 @@
         <v>35</v>
       </c>
       <c r="Q175" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R175" t="s">
         <v>42</v>
@@ -14605,7 +14610,7 @@
         <v>34</v>
       </c>
       <c r="X175" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Y175" t="s">
         <v>68</v>
@@ -14619,10 +14624,10 @@
     </row>
     <row r="176" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B176" t="s">
         <v>1050</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1051</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -14637,16 +14642,16 @@
         <v>8</v>
       </c>
       <c r="G176" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H176" t="s">
         <v>1052</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>1053</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>1054</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1055</v>
       </c>
       <c r="K176" t="s">
         <v>34</v>
@@ -14661,13 +14666,13 @@
         <v>35</v>
       </c>
       <c r="Q176" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R176" t="s">
+        <v>34</v>
+      </c>
+      <c r="S176" t="s">
         <v>1056</v>
-      </c>
-      <c r="R176" t="s">
-        <v>34</v>
-      </c>
-      <c r="S176" t="s">
-        <v>1057</v>
       </c>
       <c r="T176" t="s">
         <v>42</v>
@@ -14687,10 +14692,10 @@
     </row>
     <row r="177" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B177" t="s">
         <v>1058</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1059</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -14705,16 +14710,16 @@
         <v>4</v>
       </c>
       <c r="G177" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H177" t="s">
         <v>1060</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>1061</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>1062</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1063</v>
       </c>
       <c r="K177" t="s">
         <v>34</v>
@@ -14729,13 +14734,13 @@
         <v>35</v>
       </c>
       <c r="Q177" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S177" t="s">
         <v>1064</v>
-      </c>
-      <c r="R177" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S177" t="s">
-        <v>1065</v>
       </c>
       <c r="T177" t="s">
         <v>34</v>
@@ -14744,7 +14749,7 @@
         <v>35</v>
       </c>
       <c r="V177" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="W177" t="s">
         <v>34</v>
@@ -14759,15 +14764,15 @@
         <v>1</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="178" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B178" t="s">
         <v>1067</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1068</v>
       </c>
       <c r="C178">
         <v>2015</v>
@@ -14782,17 +14787,17 @@
         <v>4</v>
       </c>
       <c r="G178" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H178" t="s">
         <v>1069</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>1070</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>1071</v>
       </c>
-      <c r="J178" t="s">
-        <v>1072</v>
-      </c>
       <c r="K178" t="s">
         <v>34</v>
       </c>
@@ -14803,7 +14808,7 @@
         <v>42</v>
       </c>
       <c r="X178" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y178" t="s">
         <v>40</v>
@@ -14814,10 +14819,10 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="C179" s="2">
         <v>2015</v>
@@ -14829,16 +14834,16 @@
         <v>105</v>
       </c>
       <c r="G179" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="I179" s="2" t="s">
+      <c r="J179" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>34</v>
@@ -14858,10 +14863,10 @@
     </row>
     <row r="180" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B180" t="s">
         <v>1078</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1079</v>
       </c>
       <c r="C180">
         <v>2015</v>
@@ -14876,13 +14881,13 @@
         <v>1809</v>
       </c>
       <c r="H180" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I180" t="s">
         <v>1080</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>1081</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1082</v>
       </c>
       <c r="K180" t="s">
         <v>34</v>
@@ -14897,13 +14902,13 @@
         <v>35</v>
       </c>
       <c r="Q180" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S180" t="s">
         <v>1083</v>
-      </c>
-      <c r="R180" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S180" t="s">
-        <v>1084</v>
       </c>
       <c r="T180" t="s">
         <v>34</v>
@@ -14912,7 +14917,7 @@
         <v>35</v>
       </c>
       <c r="V180" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W180" t="s">
         <v>34</v>
@@ -14927,21 +14932,21 @@
         <v>1</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="181" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B181" t="s">
         <v>1086</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1087</v>
       </c>
       <c r="C181">
         <v>2015</v>
       </c>
       <c r="D181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E181">
         <v>10</v>
@@ -14950,13 +14955,13 @@
         <v>6</v>
       </c>
       <c r="H181" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I181" t="s">
         <v>1088</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>1089</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1090</v>
       </c>
       <c r="K181" t="s">
         <v>34</v>
@@ -14976,31 +14981,31 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="C182" s="2">
         <v>2015</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E182" s="2">
         <v>115</v>
       </c>
       <c r="G182" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="I182" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="J182" s="2" t="s">
         <v>1095</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>1096</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>34</v>
@@ -15020,43 +15025,43 @@
     </row>
     <row r="183" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B183" t="s">
         <v>1097</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1098</v>
       </c>
       <c r="C183">
         <v>2015</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E183">
         <v>167</v>
       </c>
       <c r="G183" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H183" t="s">
         <v>1099</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>1100</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>1101</v>
       </c>
-      <c r="J183" t="s">
+      <c r="K183" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183" t="s">
+        <v>34</v>
+      </c>
+      <c r="O183" t="s">
+        <v>42</v>
+      </c>
+      <c r="X183" t="s">
         <v>1102</v>
-      </c>
-      <c r="K183" t="s">
-        <v>34</v>
-      </c>
-      <c r="M183" t="s">
-        <v>34</v>
-      </c>
-      <c r="O183" t="s">
-        <v>42</v>
-      </c>
-      <c r="X183" t="s">
-        <v>1103</v>
       </c>
       <c r="Y183" t="s">
         <v>68</v>
@@ -15067,10 +15072,10 @@
     </row>
     <row r="184" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B184" t="s">
         <v>1104</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1105</v>
       </c>
       <c r="C184">
         <v>2015</v>
@@ -15085,16 +15090,16 @@
         <v>6</v>
       </c>
       <c r="G184" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H184" t="s">
         <v>1106</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>1107</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>1108</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1109</v>
       </c>
       <c r="K184" t="s">
         <v>34</v>
@@ -15109,22 +15114,22 @@
         <v>35</v>
       </c>
       <c r="Q184" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R184" t="s">
+        <v>34</v>
+      </c>
+      <c r="S184" t="s">
+        <v>1109</v>
+      </c>
+      <c r="T184" t="s">
+        <v>42</v>
+      </c>
+      <c r="W184" t="s">
+        <v>42</v>
+      </c>
+      <c r="X184" t="s">
         <v>1110</v>
-      </c>
-      <c r="R184" t="s">
-        <v>34</v>
-      </c>
-      <c r="S184" t="s">
-        <v>1110</v>
-      </c>
-      <c r="T184" t="s">
-        <v>42</v>
-      </c>
-      <c r="W184" t="s">
-        <v>42</v>
-      </c>
-      <c r="X184" t="s">
-        <v>1111</v>
       </c>
       <c r="Y184" t="s">
         <v>68</v>
@@ -15138,10 +15143,10 @@
     </row>
     <row r="185" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B185" t="s">
         <v>1112</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1113</v>
       </c>
       <c r="C185">
         <v>2015</v>
@@ -15156,16 +15161,16 @@
         <v>3</v>
       </c>
       <c r="G185" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H185" t="s">
         <v>1114</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>1115</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>1116</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1117</v>
       </c>
       <c r="K185" t="s">
         <v>34</v>
@@ -15180,22 +15185,22 @@
         <v>52</v>
       </c>
       <c r="Q185" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R185" t="s">
+        <v>34</v>
+      </c>
+      <c r="S185" t="s">
         <v>1118</v>
       </c>
-      <c r="R185" t="s">
-        <v>34</v>
-      </c>
-      <c r="S185" t="s">
+      <c r="T185" t="s">
+        <v>42</v>
+      </c>
+      <c r="W185" t="s">
+        <v>42</v>
+      </c>
+      <c r="X185" t="s">
         <v>1119</v>
-      </c>
-      <c r="T185" t="s">
-        <v>42</v>
-      </c>
-      <c r="W185" t="s">
-        <v>42</v>
-      </c>
-      <c r="X185" t="s">
-        <v>1120</v>
       </c>
       <c r="Y185" t="s">
         <v>40</v>
@@ -15209,10 +15214,10 @@
     </row>
     <row r="186" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B186" t="s">
         <v>1121</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1122</v>
       </c>
       <c r="C186">
         <v>2015</v>
@@ -15227,16 +15232,16 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H186" t="s">
         <v>1123</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>1124</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>1125</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1126</v>
       </c>
       <c r="K186" t="s">
         <v>34</v>
@@ -15251,13 +15256,13 @@
         <v>35</v>
       </c>
       <c r="Q186" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R186" t="s">
+        <v>34</v>
+      </c>
+      <c r="S186" t="s">
         <v>1127</v>
-      </c>
-      <c r="R186" t="s">
-        <v>34</v>
-      </c>
-      <c r="S186" t="s">
-        <v>1128</v>
       </c>
       <c r="T186" t="s">
         <v>42</v>
@@ -15275,15 +15280,15 @@
         <v>1</v>
       </c>
       <c r="AB186" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1130</v>
       </c>
       <c r="C187" s="2">
         <v>2015</v>
@@ -15295,16 +15300,16 @@
         <v>101</v>
       </c>
       <c r="G187" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H187" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="I187" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="J187" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>34</v>
@@ -15319,7 +15324,7 @@
         <v>35</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R187" s="2" t="s">
         <v>42</v>
@@ -15331,13 +15336,13 @@
         <v>35</v>
       </c>
       <c r="V187" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="W187" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="W187" s="2" t="s">
+      <c r="X187" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="X187" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="Y187" s="2" t="s">
         <v>44</v>
@@ -15351,43 +15356,43 @@
     </row>
     <row r="188" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B188" t="s">
         <v>1138</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1139</v>
       </c>
       <c r="C188">
         <v>2015</v>
       </c>
       <c r="D188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E188">
         <v>111</v>
       </c>
       <c r="G188" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H188" t="s">
         <v>1140</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>1141</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>1142</v>
       </c>
-      <c r="J188" t="s">
+      <c r="K188" t="s">
+        <v>34</v>
+      </c>
+      <c r="M188" t="s">
+        <v>34</v>
+      </c>
+      <c r="O188" t="s">
+        <v>42</v>
+      </c>
+      <c r="X188" t="s">
         <v>1143</v>
-      </c>
-      <c r="K188" t="s">
-        <v>34</v>
-      </c>
-      <c r="M188" t="s">
-        <v>34</v>
-      </c>
-      <c r="O188" t="s">
-        <v>42</v>
-      </c>
-      <c r="X188" t="s">
-        <v>1144</v>
       </c>
       <c r="Y188" t="s">
         <v>68</v>
@@ -15398,10 +15403,10 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="C189" s="2">
         <v>2015</v>
@@ -15416,25 +15421,25 @@
         <v>1</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H189" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="J189" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="K189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N189" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="K189" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M189" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="Y189" s="2" t="s">
         <v>44</v>
@@ -15445,10 +15450,10 @@
     </row>
     <row r="190" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B190" t="s">
         <v>1151</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1152</v>
       </c>
       <c r="C190">
         <v>2015</v>
@@ -15463,28 +15468,28 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H190" t="s">
         <v>1153</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>1154</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
         <v>1155</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K190" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" t="s">
+        <v>34</v>
+      </c>
+      <c r="O190" t="s">
+        <v>42</v>
+      </c>
+      <c r="X190" t="s">
         <v>1156</v>
-      </c>
-      <c r="K190" t="s">
-        <v>34</v>
-      </c>
-      <c r="M190" t="s">
-        <v>34</v>
-      </c>
-      <c r="O190" t="s">
-        <v>42</v>
-      </c>
-      <c r="X190" t="s">
-        <v>1157</v>
       </c>
       <c r="Y190" t="s">
         <v>68</v>
@@ -15495,10 +15500,10 @@
     </row>
     <row r="191" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B191" t="s">
         <v>1158</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1159</v>
       </c>
       <c r="C191">
         <v>2015</v>
@@ -15513,16 +15518,16 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H191" t="s">
         <v>1160</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>1161</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>1162</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1163</v>
       </c>
       <c r="K191" t="s">
         <v>34</v>
@@ -15537,7 +15542,7 @@
         <v>35</v>
       </c>
       <c r="Q191" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="R191" t="s">
         <v>42</v>
@@ -15558,37 +15563,37 @@
         <v>1</v>
       </c>
       <c r="AB191" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="192" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B192" t="s">
         <v>1165</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1166</v>
       </c>
       <c r="C192">
         <v>2015</v>
       </c>
       <c r="D192" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E192">
         <v>110</v>
       </c>
       <c r="G192" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H192" t="s">
         <v>1167</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>1168</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>1169</v>
       </c>
-      <c r="J192" t="s">
-        <v>1170</v>
-      </c>
       <c r="K192" t="s">
         <v>34</v>
       </c>
@@ -15599,7 +15604,7 @@
         <v>42</v>
       </c>
       <c r="X192" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Y192" t="s">
         <v>40</v>
@@ -15610,10 +15615,10 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="C193" s="2">
         <v>2015</v>
@@ -15625,16 +15630,16 @@
         <v>99</v>
       </c>
       <c r="G193" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H193" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="I193" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="J193" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>1176</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>34</v>
@@ -15654,10 +15659,10 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>1177</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>1178</v>
       </c>
       <c r="C194" s="2">
         <v>2015</v>
@@ -15672,16 +15677,16 @@
         <v>1</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H194" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="I194" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="J194" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>1182</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>34</v>
@@ -15696,7 +15701,7 @@
         <v>35</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="R194" s="3" t="s">
         <v>42</v>
@@ -15718,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>

--- a/data/ten_journals/combined/ten_journals_fulltext_screening_and_data_extraction_combined_conflict_resolving.xlsx
+++ b/data/ten_journals/combined/ten_journals_fulltext_screening_and_data_extraction_combined_conflict_resolving.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13123" windowHeight="6103"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1773,9 +1773,6 @@
     <t>Gangloff, Eric J. and Chow, Melinda and Leos-Barajas, Vianey and Hynes, Stephanie and Hobbs, Brooke and Sparkman, Am and a M.</t>
   </si>
   <si>
-    <t>10.10164/j.beproc.2007.06.006</t>
-  </si>
-  <si>
     <t>An animal's life history, physiology, and behaviour can be shaped by selection in a manner that favours strong associations among these aspects of an integrated phenotype. Recent work combining animal personality and life-history theory proposes that animals with faster life-history strategies (i.e., fast growth, high annual reproductive rate, short lifespan) should exhibit higher general activity levels relative to those with slower life history strategies, but empirical tests of within-species variation in these traits are lacking. In garter snakes from ecotypes which are known to differ in ecology, life -history strategy, and physiology, we tested for differences in tongue -flick rate as a measure of information gathering and movement patterns as a measure of general activity. Tongue flicks and movement were strongly positively correlated and both behaviours were repeatable across trials. Snakes from the fast-living ecotype were more active and showed evidence of habituation. The slow-living ecotype maintained low levels of activity throughout the trials. We propose that environmental factors, such as high predation, experienced by the fast-living ecotype select for both increased information-gathering and activity levels to facilitate efficient responses to repeated challenges. Thus, we offer evidence that behaviour is an important component of co-evolved suites of traits forming a general pace -of-life continuum in this system.</t>
   </si>
   <si>
@@ -3767,6 +3764,9 @@
   </si>
   <si>
     <t>repeatability_interpretation double-checked by AST, and repeatability_consist_predict set to unclear too</t>
+  </si>
+  <si>
+    <t>10.1016/j.beproc.2017.06.006</t>
   </si>
 </sst>
 </file>
@@ -4124,30 +4124,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S97" sqref="S97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="1" max="15" width="9.15234375" style="2"/>
+    <col min="16" max="16" width="24.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.15234375" style="2"/>
     <col min="18" max="18" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="2"/>
-    <col min="20" max="20" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.15234375" style="2"/>
+    <col min="20" max="20" width="21.15234375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="2"/>
-    <col min="23" max="23" width="54.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="2"/>
-    <col min="25" max="25" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="2"/>
+    <col min="22" max="22" width="9.15234375" style="2"/>
+    <col min="23" max="23" width="54.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.15234375" style="2"/>
+    <col min="25" max="25" width="8.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.15234375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4230,10 +4230,10 @@
         <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4274,19 +4274,19 @@
         <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="S2" t="s">
         <v>37</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
@@ -4305,10 +4305,10 @@
         <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4349,13 +4349,13 @@
         <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U3" s="1"/>
       <c r="W3" t="s">
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -4448,10 +4448,10 @@
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -4590,10 +4590,10 @@
         <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T7" t="s">
         <v>42</v>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -4730,10 +4730,10 @@
         <v>2</v>
       </c>
       <c r="AB8" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -4802,10 +4802,10 @@
         <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -4973,10 +4973,10 @@
         <v>2</v>
       </c>
       <c r="AB12" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>34</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>42</v>
@@ -5045,10 +5045,10 @@
         <v>2</v>
       </c>
       <c r="AB13" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -5114,10 +5114,10 @@
         <v>2</v>
       </c>
       <c r="AB14" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5183,10 +5183,10 @@
         <v>2</v>
       </c>
       <c r="AB15" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -5254,10 +5254,10 @@
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -5320,10 +5320,10 @@
         <v>2</v>
       </c>
       <c r="AB17" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -5482,10 +5482,10 @@
         <v>2</v>
       </c>
       <c r="AB20" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>2</v>
       </c>
       <c r="AB21" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -5619,10 +5619,10 @@
         <v>2</v>
       </c>
       <c r="AB22" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -5758,10 +5758,10 @@
         <v>2</v>
       </c>
       <c r="AB24" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -5900,10 +5900,10 @@
         <v>2</v>
       </c>
       <c r="AB26" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>181</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -6315,10 +6315,10 @@
         <v>2</v>
       </c>
       <c r="AB34" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>197</v>
       </c>
@@ -6452,10 +6452,10 @@
         <v>2</v>
       </c>
       <c r="AB36" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>34</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="T41" t="s">
         <v>42</v>
@@ -6745,10 +6745,10 @@
         <v>2</v>
       </c>
       <c r="AB41" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>230</v>
       </c>
@@ -6901,10 +6901,10 @@
         <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -6964,10 +6964,10 @@
         <v>2</v>
       </c>
       <c r="AB45" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>244</v>
       </c>
@@ -7118,10 +7118,10 @@
         <v>2</v>
       </c>
       <c r="AB48" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -7181,10 +7181,10 @@
         <v>2</v>
       </c>
       <c r="AB49" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -7249,10 +7249,10 @@
         <v>2</v>
       </c>
       <c r="AB50" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -7318,10 +7318,10 @@
         <v>2</v>
       </c>
       <c r="AB51" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>260</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -7480,10 +7480,10 @@
         <v>2</v>
       </c>
       <c r="AB54" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -7549,10 +7549,10 @@
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>275</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>283</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -7814,10 +7814,10 @@
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>290</v>
       </c>
@@ -7886,10 +7886,10 @@
         <v>2</v>
       </c>
       <c r="AB61" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -7960,10 +7960,10 @@
         <v>2</v>
       </c>
       <c r="AB62" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>301</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>312</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>318</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>325</v>
       </c>
@@ -8275,10 +8275,10 @@
         <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>325</v>
       </c>
@@ -8341,10 +8341,10 @@
         <v>2</v>
       </c>
       <c r="AB69" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>333</v>
       </c>
@@ -8397,10 +8397,10 @@
         <v>2</v>
       </c>
       <c r="AB70" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>333</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>340</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>346</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>352</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>359</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>359</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>365</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>371</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>379</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>42</v>
       </c>
       <c r="S82" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>34</v>
@@ -9009,10 +9009,10 @@
         <v>1</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>387</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>394</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>401</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>408</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>416</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>423</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>430</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>435</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>441</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>446</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>453</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>462</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>468</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>474</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>483</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>491</v>
       </c>
@@ -9938,10 +9938,10 @@
         <v>1</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>499</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>506</v>
       </c>
@@ -10069,10 +10069,10 @@
         <v>1</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>514</v>
       </c>
@@ -10132,10 +10132,10 @@
         <v>1</v>
       </c>
       <c r="AB101" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>520</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>529</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>536</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>544</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>34</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>42</v>
@@ -10392,10 +10392,10 @@
         <v>1</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>551</v>
       </c>
@@ -10464,10 +10464,10 @@
         <v>1</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>559</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>52</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>42</v>
@@ -10535,10 +10535,10 @@
         <v>1</v>
       </c>
       <c r="AB107" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>566</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>572</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>578</v>
       </c>
@@ -10652,10 +10652,10 @@
         <v>581</v>
       </c>
       <c r="I110" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J110" t="s">
         <v>582</v>
-      </c>
-      <c r="J110" t="s">
-        <v>583</v>
       </c>
       <c r="K110" t="s">
         <v>34</v>
@@ -10670,13 +10670,13 @@
         <v>35</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="R110" t="s">
         <v>34</v>
       </c>
       <c r="S110" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T110" t="s">
         <v>42</v>
@@ -10694,15 +10694,15 @@
         <v>1</v>
       </c>
       <c r="AB110" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>583</v>
+      </c>
+      <c r="B111" t="s">
         <v>584</v>
-      </c>
-      <c r="B111" t="s">
-        <v>585</v>
       </c>
       <c r="C111">
         <v>2017</v>
@@ -10714,16 +10714,16 @@
         <v>142</v>
       </c>
       <c r="G111" t="s">
+        <v>585</v>
+      </c>
+      <c r="H111" t="s">
         <v>586</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>587</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>588</v>
-      </c>
-      <c r="J111" t="s">
-        <v>589</v>
       </c>
       <c r="K111" t="s">
         <v>34</v>
@@ -10738,13 +10738,13 @@
         <v>52</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="R111" t="s">
         <v>34</v>
       </c>
       <c r="S111" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T111" t="s">
         <v>34</v>
@@ -10753,13 +10753,13 @@
         <v>52</v>
       </c>
       <c r="V111" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W111" t="s">
         <v>42</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y111" t="s">
         <v>40</v>
@@ -10771,15 +10771,15 @@
         <v>1</v>
       </c>
       <c r="AB111" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>591</v>
+      </c>
+      <c r="B112" t="s">
         <v>592</v>
-      </c>
-      <c r="B112" t="s">
-        <v>593</v>
       </c>
       <c r="C112">
         <v>2017</v>
@@ -10794,16 +10794,16 @@
         <v>9</v>
       </c>
       <c r="G112" t="s">
+        <v>593</v>
+      </c>
+      <c r="H112" t="s">
         <v>594</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>595</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>596</v>
-      </c>
-      <c r="J112" t="s">
-        <v>597</v>
       </c>
       <c r="K112" t="s">
         <v>34</v>
@@ -10818,13 +10818,13 @@
         <v>35</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="R112" t="s">
         <v>34</v>
       </c>
       <c r="S112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T112" t="s">
         <v>42</v>
@@ -10842,15 +10842,15 @@
         <v>1</v>
       </c>
       <c r="AB112" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="C113" s="2">
         <v>2017</v>
@@ -10865,13 +10865,13 @@
         <v>1860</v>
       </c>
       <c r="H113" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="I113" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>34</v>
@@ -10886,13 +10886,13 @@
         <v>35</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="R113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>42</v>
@@ -10910,15 +10910,15 @@
         <v>1</v>
       </c>
       <c r="AB113" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>603</v>
+      </c>
+      <c r="B114" t="s">
         <v>604</v>
-      </c>
-      <c r="B114" t="s">
-        <v>605</v>
       </c>
       <c r="C114">
         <v>2017</v>
@@ -10930,16 +10930,16 @@
         <v>130</v>
       </c>
       <c r="G114" t="s">
+        <v>605</v>
+      </c>
+      <c r="H114" t="s">
         <v>606</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>607</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>608</v>
-      </c>
-      <c r="J114" t="s">
-        <v>609</v>
       </c>
       <c r="K114" t="s">
         <v>34</v>
@@ -10957,12 +10957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>611</v>
       </c>
       <c r="C115" s="5">
         <v>2017</v>
@@ -10977,16 +10977,16 @@
         <v>2</v>
       </c>
       <c r="G115" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="I115" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>34</v>
@@ -11001,13 +11001,13 @@
         <v>35</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T115" s="5" t="s">
         <v>42</v>
@@ -11025,12 +11025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="C116" s="2">
         <v>2017</v>
@@ -11045,16 +11045,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>34</v>
@@ -11072,12 +11072,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
+        <v>622</v>
+      </c>
+      <c r="B117" t="s">
         <v>623</v>
-      </c>
-      <c r="B117" t="s">
-        <v>624</v>
       </c>
       <c r="C117">
         <v>2017</v>
@@ -11089,16 +11089,16 @@
         <v>129</v>
       </c>
       <c r="G117" t="s">
+        <v>624</v>
+      </c>
+      <c r="H117" t="s">
         <v>625</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>626</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>627</v>
-      </c>
-      <c r="J117" t="s">
-        <v>628</v>
       </c>
       <c r="K117" t="s">
         <v>34</v>
@@ -11113,7 +11113,7 @@
         <v>35</v>
       </c>
       <c r="Q117" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R117" t="s">
         <v>42</v>
@@ -11137,12 +11137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>629</v>
+      </c>
+      <c r="B118" t="s">
         <v>630</v>
-      </c>
-      <c r="B118" t="s">
-        <v>631</v>
       </c>
       <c r="C118">
         <v>2017</v>
@@ -11157,25 +11157,25 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
+        <v>631</v>
+      </c>
+      <c r="I118" t="s">
         <v>632</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>633</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" t="s">
+        <v>34</v>
+      </c>
+      <c r="O118" t="s">
+        <v>42</v>
+      </c>
+      <c r="X118" t="s">
         <v>634</v>
-      </c>
-      <c r="K118" t="s">
-        <v>34</v>
-      </c>
-      <c r="M118" t="s">
-        <v>34</v>
-      </c>
-      <c r="O118" t="s">
-        <v>42</v>
-      </c>
-      <c r="X118" t="s">
-        <v>635</v>
       </c>
       <c r="Y118" t="s">
         <v>40</v>
@@ -11184,12 +11184,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="C119" s="2">
         <v>2017</v>
@@ -11201,16 +11201,16 @@
         <v>127</v>
       </c>
       <c r="G119" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>34</v>
@@ -11228,12 +11228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
+        <v>641</v>
+      </c>
+      <c r="B120" t="s">
         <v>642</v>
-      </c>
-      <c r="B120" t="s">
-        <v>643</v>
       </c>
       <c r="C120">
         <v>2017</v>
@@ -11248,16 +11248,16 @@
         <v>3</v>
       </c>
       <c r="G120" t="s">
+        <v>643</v>
+      </c>
+      <c r="H120" t="s">
         <v>644</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>645</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>646</v>
-      </c>
-      <c r="J120" t="s">
-        <v>647</v>
       </c>
       <c r="K120" t="s">
         <v>34</v>
@@ -11272,13 +11272,13 @@
         <v>35</v>
       </c>
       <c r="Q120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>42</v>
       </c>
       <c r="S120" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T120" t="s">
         <v>42</v>
@@ -11296,15 +11296,15 @@
         <v>1</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>648</v>
+      </c>
+      <c r="B121" t="s">
         <v>649</v>
-      </c>
-      <c r="B121" t="s">
-        <v>650</v>
       </c>
       <c r="C121">
         <v>2017</v>
@@ -11316,16 +11316,16 @@
         <v>126</v>
       </c>
       <c r="G121" t="s">
+        <v>650</v>
+      </c>
+      <c r="H121" t="s">
         <v>651</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>652</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>653</v>
-      </c>
-      <c r="J121" t="s">
-        <v>654</v>
       </c>
       <c r="K121" t="s">
         <v>34</v>
@@ -11340,22 +11340,22 @@
         <v>52</v>
       </c>
       <c r="Q121" t="s">
+        <v>654</v>
+      </c>
+      <c r="R121" t="s">
+        <v>34</v>
+      </c>
+      <c r="S121" t="s">
         <v>655</v>
       </c>
-      <c r="R121" t="s">
-        <v>34</v>
-      </c>
-      <c r="S121" t="s">
+      <c r="T121" t="s">
+        <v>42</v>
+      </c>
+      <c r="W121" t="s">
+        <v>42</v>
+      </c>
+      <c r="X121" t="s">
         <v>656</v>
-      </c>
-      <c r="T121" t="s">
-        <v>42</v>
-      </c>
-      <c r="W121" t="s">
-        <v>42</v>
-      </c>
-      <c r="X121" t="s">
-        <v>657</v>
       </c>
       <c r="Y121" t="s">
         <v>68</v>
@@ -11367,12 +11367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
+        <v>657</v>
+      </c>
+      <c r="B122" t="s">
         <v>658</v>
-      </c>
-      <c r="B122" t="s">
-        <v>659</v>
       </c>
       <c r="C122">
         <v>2017</v>
@@ -11387,16 +11387,16 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" t="s">
         <v>660</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>661</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>662</v>
-      </c>
-      <c r="J122" t="s">
-        <v>663</v>
       </c>
       <c r="K122" t="s">
         <v>34</v>
@@ -11414,12 +11414,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
+        <v>663</v>
+      </c>
+      <c r="B123" t="s">
         <v>664</v>
-      </c>
-      <c r="B123" t="s">
-        <v>665</v>
       </c>
       <c r="C123">
         <v>2017</v>
@@ -11431,16 +11431,16 @@
         <v>136</v>
       </c>
       <c r="G123" t="s">
+        <v>665</v>
+      </c>
+      <c r="H123" t="s">
         <v>666</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>667</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>668</v>
-      </c>
-      <c r="J123" t="s">
-        <v>669</v>
       </c>
       <c r="K123" t="s">
         <v>34</v>
@@ -11455,22 +11455,22 @@
         <v>35</v>
       </c>
       <c r="Q123" t="s">
+        <v>669</v>
+      </c>
+      <c r="R123" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" t="s">
+        <v>669</v>
+      </c>
+      <c r="T123" t="s">
+        <v>42</v>
+      </c>
+      <c r="W123" t="s">
+        <v>42</v>
+      </c>
+      <c r="X123" t="s">
         <v>670</v>
-      </c>
-      <c r="R123" t="s">
-        <v>42</v>
-      </c>
-      <c r="S123" t="s">
-        <v>670</v>
-      </c>
-      <c r="T123" t="s">
-        <v>42</v>
-      </c>
-      <c r="W123" t="s">
-        <v>42</v>
-      </c>
-      <c r="X123" t="s">
-        <v>671</v>
       </c>
       <c r="Y123" t="s">
         <v>68</v>
@@ -11482,12 +11482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>671</v>
+      </c>
+      <c r="B124" t="s">
         <v>672</v>
-      </c>
-      <c r="B124" t="s">
-        <v>673</v>
       </c>
       <c r="C124">
         <v>2017</v>
@@ -11499,16 +11499,16 @@
         <v>187</v>
       </c>
       <c r="G124" t="s">
+        <v>673</v>
+      </c>
+      <c r="H124" t="s">
         <v>674</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>675</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>676</v>
-      </c>
-      <c r="J124" t="s">
-        <v>677</v>
       </c>
       <c r="K124" t="s">
         <v>34</v>
@@ -11526,12 +11526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C125" s="2">
         <v>2017</v>
@@ -11546,16 +11546,16 @@
         <v>9</v>
       </c>
       <c r="G125" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>34</v>
@@ -11573,12 +11573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="C126" s="6">
         <v>2017</v>
@@ -11593,16 +11593,16 @@
         <v>5</v>
       </c>
       <c r="G126" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H126" s="6" t="s">
+      <c r="I126" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="J126" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="J126" s="6" t="s">
-        <v>689</v>
       </c>
       <c r="K126" s="6" t="s">
         <v>34</v>
@@ -11617,22 +11617,22 @@
         <v>52</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="R126" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S126" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="T126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U126" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V126" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="T126" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U126" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="W126" s="6" t="s">
         <v>42</v>
@@ -11647,15 +11647,15 @@
         <v>1</v>
       </c>
       <c r="AB126" s="6" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>691</v>
+      </c>
+      <c r="B127" t="s">
         <v>692</v>
-      </c>
-      <c r="B127" t="s">
-        <v>693</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -11670,16 +11670,16 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
+        <v>693</v>
+      </c>
+      <c r="H127" t="s">
         <v>694</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>695</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>696</v>
-      </c>
-      <c r="J127" t="s">
-        <v>697</v>
       </c>
       <c r="K127" t="s">
         <v>34</v>
@@ -11694,13 +11694,13 @@
         <v>35</v>
       </c>
       <c r="Q127" t="s">
+        <v>697</v>
+      </c>
+      <c r="R127" t="s">
+        <v>34</v>
+      </c>
+      <c r="S127" t="s">
         <v>698</v>
-      </c>
-      <c r="R127" t="s">
-        <v>34</v>
-      </c>
-      <c r="S127" t="s">
-        <v>699</v>
       </c>
       <c r="T127" t="s">
         <v>34</v>
@@ -11709,7 +11709,7 @@
         <v>35</v>
       </c>
       <c r="V127" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="W127" t="s">
         <v>34</v>
@@ -11724,12 +11724,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
+        <v>700</v>
+      </c>
+      <c r="B128" t="s">
         <v>701</v>
-      </c>
-      <c r="B128" t="s">
-        <v>702</v>
       </c>
       <c r="C128">
         <v>2017</v>
@@ -11744,16 +11744,16 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
+        <v>702</v>
+      </c>
+      <c r="H128" t="s">
         <v>703</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>704</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>705</v>
-      </c>
-      <c r="J128" t="s">
-        <v>706</v>
       </c>
       <c r="K128" t="s">
         <v>34</v>
@@ -11771,12 +11771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
+        <v>706</v>
+      </c>
+      <c r="B129" t="s">
         <v>707</v>
-      </c>
-      <c r="B129" t="s">
-        <v>708</v>
       </c>
       <c r="C129">
         <v>2017</v>
@@ -11788,16 +11788,16 @@
         <v>134</v>
       </c>
       <c r="G129" t="s">
+        <v>708</v>
+      </c>
+      <c r="H129" t="s">
         <v>709</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>710</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>711</v>
-      </c>
-      <c r="J129" t="s">
-        <v>712</v>
       </c>
       <c r="K129" t="s">
         <v>34</v>
@@ -11812,13 +11812,13 @@
         <v>52</v>
       </c>
       <c r="Q129" t="s">
+        <v>712</v>
+      </c>
+      <c r="R129" t="s">
+        <v>34</v>
+      </c>
+      <c r="S129" t="s">
         <v>713</v>
-      </c>
-      <c r="R129" t="s">
-        <v>34</v>
-      </c>
-      <c r="S129" t="s">
-        <v>714</v>
       </c>
       <c r="T129" t="s">
         <v>42</v>
@@ -11836,12 +11836,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="C130" s="2">
         <v>2017</v>
@@ -11853,16 +11853,16 @@
         <v>134</v>
       </c>
       <c r="G130" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>34</v>
@@ -11880,12 +11880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>720</v>
+      </c>
+      <c r="B131" t="s">
         <v>721</v>
-      </c>
-      <c r="B131" t="s">
-        <v>722</v>
       </c>
       <c r="C131">
         <v>2017</v>
@@ -11897,16 +11897,16 @@
         <v>134</v>
       </c>
       <c r="G131" t="s">
+        <v>722</v>
+      </c>
+      <c r="H131" t="s">
         <v>723</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>724</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>725</v>
-      </c>
-      <c r="J131" t="s">
-        <v>726</v>
       </c>
       <c r="K131" t="s">
         <v>34</v>
@@ -11921,22 +11921,22 @@
         <v>52</v>
       </c>
       <c r="Q131" t="s">
+        <v>726</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S131" t="s">
         <v>727</v>
       </c>
-      <c r="R131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S131" t="s">
+      <c r="T131" t="s">
+        <v>42</v>
+      </c>
+      <c r="W131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X131" t="s">
         <v>728</v>
-      </c>
-      <c r="T131" t="s">
-        <v>42</v>
-      </c>
-      <c r="W131" t="s">
-        <v>42</v>
-      </c>
-      <c r="X131" t="s">
-        <v>729</v>
       </c>
       <c r="Y131" t="s">
         <v>40</v>
@@ -11948,15 +11948,15 @@
         <v>1</v>
       </c>
       <c r="AB131" s="2" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
+        <v>729</v>
+      </c>
+      <c r="B132" t="s">
         <v>730</v>
-      </c>
-      <c r="B132" t="s">
-        <v>731</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -11971,13 +11971,13 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
+        <v>731</v>
+      </c>
+      <c r="I132" t="s">
         <v>732</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>733</v>
-      </c>
-      <c r="J132" t="s">
-        <v>734</v>
       </c>
       <c r="K132" t="s">
         <v>34</v>
@@ -11992,13 +11992,13 @@
         <v>35</v>
       </c>
       <c r="Q132" t="s">
+        <v>734</v>
+      </c>
+      <c r="R132" t="s">
+        <v>42</v>
+      </c>
+      <c r="S132" t="s">
         <v>735</v>
-      </c>
-      <c r="R132" t="s">
-        <v>42</v>
-      </c>
-      <c r="S132" t="s">
-        <v>736</v>
       </c>
       <c r="T132" t="s">
         <v>34</v>
@@ -12007,13 +12007,13 @@
         <v>38</v>
       </c>
       <c r="V132" t="s">
+        <v>736</v>
+      </c>
+      <c r="W132" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" t="s">
         <v>737</v>
-      </c>
-      <c r="W132" t="s">
-        <v>42</v>
-      </c>
-      <c r="X132" t="s">
-        <v>738</v>
       </c>
       <c r="Y132" t="s">
         <v>68</v>
@@ -12025,12 +12025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
+        <v>738</v>
+      </c>
+      <c r="B133" t="s">
         <v>739</v>
-      </c>
-      <c r="B133" t="s">
-        <v>740</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -12042,16 +12042,16 @@
         <v>123</v>
       </c>
       <c r="G133" t="s">
+        <v>740</v>
+      </c>
+      <c r="H133" t="s">
         <v>741</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>742</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>743</v>
-      </c>
-      <c r="J133" t="s">
-        <v>744</v>
       </c>
       <c r="K133" t="s">
         <v>34</v>
@@ -12066,13 +12066,13 @@
         <v>52</v>
       </c>
       <c r="Q133" t="s">
+        <v>744</v>
+      </c>
+      <c r="R133" t="s">
+        <v>34</v>
+      </c>
+      <c r="S133" t="s">
         <v>745</v>
-      </c>
-      <c r="R133" t="s">
-        <v>34</v>
-      </c>
-      <c r="S133" t="s">
-        <v>746</v>
       </c>
       <c r="T133" t="s">
         <v>34</v>
@@ -12081,13 +12081,13 @@
         <v>52</v>
       </c>
       <c r="V133" t="s">
+        <v>746</v>
+      </c>
+      <c r="W133" t="s">
+        <v>42</v>
+      </c>
+      <c r="X133" t="s">
         <v>747</v>
-      </c>
-      <c r="W133" t="s">
-        <v>42</v>
-      </c>
-      <c r="X133" t="s">
-        <v>748</v>
       </c>
       <c r="Y133" t="s">
         <v>68</v>
@@ -12099,12 +12099,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
+        <v>748</v>
+      </c>
+      <c r="B134" t="s">
         <v>749</v>
-      </c>
-      <c r="B134" t="s">
-        <v>750</v>
       </c>
       <c r="C134">
         <v>2017</v>
@@ -12116,16 +12116,16 @@
         <v>123</v>
       </c>
       <c r="G134" t="s">
+        <v>750</v>
+      </c>
+      <c r="H134" t="s">
         <v>751</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>752</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>753</v>
-      </c>
-      <c r="J134" t="s">
-        <v>754</v>
       </c>
       <c r="K134" t="s">
         <v>34</v>
@@ -12140,13 +12140,13 @@
         <v>35</v>
       </c>
       <c r="Q134" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S134" t="s">
         <v>755</v>
-      </c>
-      <c r="R134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S134" t="s">
-        <v>756</v>
       </c>
       <c r="T134" t="s">
         <v>34</v>
@@ -12155,7 +12155,7 @@
         <v>52</v>
       </c>
       <c r="V134" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W134" t="s">
         <v>42</v>
@@ -12170,15 +12170,15 @@
         <v>1</v>
       </c>
       <c r="AB134" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
+        <v>757</v>
+      </c>
+      <c r="B135" t="s">
         <v>758</v>
-      </c>
-      <c r="B135" t="s">
-        <v>759</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -12190,16 +12190,16 @@
         <v>123</v>
       </c>
       <c r="G135" t="s">
+        <v>759</v>
+      </c>
+      <c r="H135" t="s">
         <v>760</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>761</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>762</v>
-      </c>
-      <c r="J135" t="s">
-        <v>763</v>
       </c>
       <c r="K135" t="s">
         <v>34</v>
@@ -12214,13 +12214,13 @@
         <v>35</v>
       </c>
       <c r="Q135" t="s">
+        <v>763</v>
+      </c>
+      <c r="R135" t="s">
+        <v>34</v>
+      </c>
+      <c r="S135" t="s">
         <v>764</v>
-      </c>
-      <c r="R135" t="s">
-        <v>34</v>
-      </c>
-      <c r="S135" t="s">
-        <v>765</v>
       </c>
       <c r="T135" t="s">
         <v>34</v>
@@ -12241,12 +12241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
+        <v>765</v>
+      </c>
+      <c r="B136" t="s">
         <v>766</v>
-      </c>
-      <c r="B136" t="s">
-        <v>767</v>
       </c>
       <c r="C136">
         <v>2016</v>
@@ -12261,31 +12261,31 @@
         <v>1844</v>
       </c>
       <c r="H136" t="s">
+        <v>767</v>
+      </c>
+      <c r="I136" t="s">
         <v>768</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>769</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" t="s">
+        <v>34</v>
+      </c>
+      <c r="O136" t="s">
+        <v>34</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q136" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="K136" t="s">
-        <v>34</v>
-      </c>
-      <c r="M136" t="s">
-        <v>34</v>
-      </c>
-      <c r="O136" t="s">
-        <v>34</v>
-      </c>
-      <c r="P136" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="Q136" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="R136" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="T136" t="s">
         <v>42</v>
@@ -12303,15 +12303,15 @@
         <v>1</v>
       </c>
       <c r="AB136" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
+        <v>771</v>
+      </c>
+      <c r="B137" t="s">
         <v>772</v>
-      </c>
-      <c r="B137" t="s">
-        <v>773</v>
       </c>
       <c r="C137">
         <v>2016</v>
@@ -12323,16 +12323,16 @@
         <v>122</v>
       </c>
       <c r="G137" t="s">
+        <v>773</v>
+      </c>
+      <c r="H137" t="s">
         <v>774</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>775</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>776</v>
-      </c>
-      <c r="J137" t="s">
-        <v>777</v>
       </c>
       <c r="K137" t="s">
         <v>34</v>
@@ -12347,22 +12347,22 @@
         <v>35</v>
       </c>
       <c r="Q137" t="s">
+        <v>777</v>
+      </c>
+      <c r="R137" t="s">
+        <v>42</v>
+      </c>
+      <c r="S137" t="s">
         <v>778</v>
       </c>
-      <c r="R137" t="s">
-        <v>42</v>
-      </c>
-      <c r="S137" t="s">
+      <c r="T137" t="s">
+        <v>42</v>
+      </c>
+      <c r="W137" t="s">
+        <v>42</v>
+      </c>
+      <c r="X137" t="s">
         <v>779</v>
-      </c>
-      <c r="T137" t="s">
-        <v>42</v>
-      </c>
-      <c r="W137" t="s">
-        <v>42</v>
-      </c>
-      <c r="X137" t="s">
-        <v>780</v>
       </c>
       <c r="Y137" t="s">
         <v>68</v>
@@ -12374,12 +12374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
+        <v>780</v>
+      </c>
+      <c r="B138" t="s">
         <v>781</v>
-      </c>
-      <c r="B138" t="s">
-        <v>782</v>
       </c>
       <c r="C138">
         <v>2016</v>
@@ -12394,16 +12394,16 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
+        <v>782</v>
+      </c>
+      <c r="H138" t="s">
         <v>783</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>784</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>785</v>
-      </c>
-      <c r="J138" t="s">
-        <v>786</v>
       </c>
       <c r="K138" t="s">
         <v>34</v>
@@ -12418,7 +12418,7 @@
         <v>35</v>
       </c>
       <c r="Q138" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R138" t="s">
         <v>42</v>
@@ -12439,12 +12439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
+        <v>787</v>
+      </c>
+      <c r="B139" t="s">
         <v>788</v>
-      </c>
-      <c r="B139" t="s">
-        <v>789</v>
       </c>
       <c r="C139">
         <v>2016</v>
@@ -12459,16 +12459,16 @@
         <v>12</v>
       </c>
       <c r="G139" t="s">
+        <v>789</v>
+      </c>
+      <c r="H139" t="s">
         <v>790</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>791</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>792</v>
-      </c>
-      <c r="J139" t="s">
-        <v>793</v>
       </c>
       <c r="K139" t="s">
         <v>34</v>
@@ -12483,28 +12483,28 @@
         <v>35</v>
       </c>
       <c r="Q139" t="s">
+        <v>793</v>
+      </c>
+      <c r="R139" t="s">
+        <v>34</v>
+      </c>
+      <c r="S139" t="s">
         <v>794</v>
       </c>
-      <c r="R139" t="s">
-        <v>34</v>
-      </c>
-      <c r="S139" t="s">
+      <c r="T139" t="s">
+        <v>34</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="V139" t="s">
         <v>795</v>
       </c>
-      <c r="T139" t="s">
-        <v>34</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="V139" t="s">
+      <c r="W139" t="s">
+        <v>42</v>
+      </c>
+      <c r="X139" t="s">
         <v>796</v>
-      </c>
-      <c r="W139" t="s">
-        <v>42</v>
-      </c>
-      <c r="X139" t="s">
-        <v>797</v>
       </c>
       <c r="Y139" t="s">
         <v>68</v>
@@ -12516,15 +12516,15 @@
         <v>1</v>
       </c>
       <c r="AB139" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
+        <v>797</v>
+      </c>
+      <c r="B140" t="s">
         <v>798</v>
-      </c>
-      <c r="B140" t="s">
-        <v>799</v>
       </c>
       <c r="C140">
         <v>2016</v>
@@ -12539,28 +12539,28 @@
         <v>6</v>
       </c>
       <c r="G140" t="s">
+        <v>799</v>
+      </c>
+      <c r="H140" t="s">
         <v>800</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>801</v>
       </c>
-      <c r="I140" t="s">
+      <c r="J140" t="s">
         <v>802</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
+        <v>34</v>
+      </c>
+      <c r="M140" t="s">
+        <v>34</v>
+      </c>
+      <c r="O140" t="s">
+        <v>42</v>
+      </c>
+      <c r="X140" t="s">
         <v>803</v>
-      </c>
-      <c r="K140" t="s">
-        <v>34</v>
-      </c>
-      <c r="M140" t="s">
-        <v>34</v>
-      </c>
-      <c r="O140" t="s">
-        <v>42</v>
-      </c>
-      <c r="X140" t="s">
-        <v>804</v>
       </c>
       <c r="Y140" t="s">
         <v>40</v>
@@ -12569,12 +12569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
+        <v>804</v>
+      </c>
+      <c r="B141" t="s">
         <v>805</v>
-      </c>
-      <c r="B141" t="s">
-        <v>806</v>
       </c>
       <c r="C141">
         <v>2016</v>
@@ -12589,16 +12589,16 @@
         <v>6</v>
       </c>
       <c r="G141" t="s">
+        <v>806</v>
+      </c>
+      <c r="H141" t="s">
         <v>807</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>808</v>
       </c>
-      <c r="I141" t="s">
+      <c r="J141" t="s">
         <v>809</v>
-      </c>
-      <c r="J141" t="s">
-        <v>810</v>
       </c>
       <c r="K141" t="s">
         <v>34</v>
@@ -12613,7 +12613,7 @@
         <v>35</v>
       </c>
       <c r="Q141" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R141" t="s">
         <v>42</v>
@@ -12634,12 +12634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>811</v>
+      </c>
+      <c r="B142" t="s">
         <v>812</v>
-      </c>
-      <c r="B142" t="s">
-        <v>813</v>
       </c>
       <c r="C142">
         <v>2016</v>
@@ -12654,28 +12654,28 @@
         <v>6</v>
       </c>
       <c r="G142" t="s">
+        <v>813</v>
+      </c>
+      <c r="H142" t="s">
         <v>814</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>815</v>
       </c>
-      <c r="I142" t="s">
+      <c r="J142" t="s">
         <v>816</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
+        <v>34</v>
+      </c>
+      <c r="M142" t="s">
+        <v>34</v>
+      </c>
+      <c r="O142" t="s">
+        <v>42</v>
+      </c>
+      <c r="X142" t="s">
         <v>817</v>
-      </c>
-      <c r="K142" t="s">
-        <v>34</v>
-      </c>
-      <c r="M142" t="s">
-        <v>34</v>
-      </c>
-      <c r="O142" t="s">
-        <v>42</v>
-      </c>
-      <c r="X142" t="s">
-        <v>818</v>
       </c>
       <c r="Y142" t="s">
         <v>40</v>
@@ -12684,12 +12684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
+        <v>818</v>
+      </c>
+      <c r="B143" t="s">
         <v>819</v>
-      </c>
-      <c r="B143" t="s">
-        <v>820</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -12701,16 +12701,16 @@
         <v>132</v>
       </c>
       <c r="G143" t="s">
+        <v>820</v>
+      </c>
+      <c r="H143" t="s">
         <v>821</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>822</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>823</v>
-      </c>
-      <c r="J143" t="s">
-        <v>824</v>
       </c>
       <c r="K143" t="s">
         <v>34</v>
@@ -12725,13 +12725,13 @@
         <v>35</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="R143" t="s">
         <v>34</v>
       </c>
       <c r="S143" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="T143" t="s">
         <v>42</v>
@@ -12749,15 +12749,15 @@
         <v>1</v>
       </c>
       <c r="AB143" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
+        <v>825</v>
+      </c>
+      <c r="B144" t="s">
         <v>826</v>
-      </c>
-      <c r="B144" t="s">
-        <v>827</v>
       </c>
       <c r="C144">
         <v>2016</v>
@@ -12772,16 +12772,16 @@
         <v>11</v>
       </c>
       <c r="G144" t="s">
+        <v>827</v>
+      </c>
+      <c r="H144" t="s">
         <v>828</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>829</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>830</v>
-      </c>
-      <c r="J144" t="s">
-        <v>831</v>
       </c>
       <c r="K144" t="s">
         <v>34</v>
@@ -12796,22 +12796,22 @@
         <v>52</v>
       </c>
       <c r="Q144" t="s">
+        <v>831</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S144" t="s">
+        <v>831</v>
+      </c>
+      <c r="T144" t="s">
+        <v>42</v>
+      </c>
+      <c r="W144" t="s">
+        <v>34</v>
+      </c>
+      <c r="X144" t="s">
         <v>832</v>
-      </c>
-      <c r="R144" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S144" t="s">
-        <v>832</v>
-      </c>
-      <c r="T144" t="s">
-        <v>42</v>
-      </c>
-      <c r="W144" t="s">
-        <v>34</v>
-      </c>
-      <c r="X144" t="s">
-        <v>833</v>
       </c>
       <c r="Y144" t="s">
         <v>68</v>
@@ -12823,15 +12823,15 @@
         <v>1</v>
       </c>
       <c r="AB144" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="C145" s="2">
         <v>2016</v>
@@ -12843,16 +12843,16 @@
         <v>120</v>
       </c>
       <c r="G145" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="I145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>34</v>
@@ -12867,22 +12867,22 @@
         <v>52</v>
       </c>
       <c r="Q145" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X145" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="R145" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S145" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="T145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W145" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X145" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="Y145" s="2" t="s">
         <v>44</v>
@@ -12894,15 +12894,15 @@
         <v>1</v>
       </c>
       <c r="AB145" s="2" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
+        <v>841</v>
+      </c>
+      <c r="B146" t="s">
         <v>842</v>
-      </c>
-      <c r="B146" t="s">
-        <v>843</v>
       </c>
       <c r="C146">
         <v>2016</v>
@@ -12917,16 +12917,16 @@
         <v>5</v>
       </c>
       <c r="G146" t="s">
+        <v>843</v>
+      </c>
+      <c r="H146" t="s">
         <v>844</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>845</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>846</v>
-      </c>
-      <c r="J146" t="s">
-        <v>847</v>
       </c>
       <c r="K146" t="s">
         <v>34</v>
@@ -12948,7 +12948,7 @@
         <v>42</v>
       </c>
       <c r="X146" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Y146" t="s">
         <v>68</v>
@@ -12960,15 +12960,15 @@
         <v>1</v>
       </c>
       <c r="AB146" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>848</v>
+      </c>
+      <c r="B147" t="s">
         <v>849</v>
-      </c>
-      <c r="B147" t="s">
-        <v>850</v>
       </c>
       <c r="C147">
         <v>2016</v>
@@ -12983,16 +12983,16 @@
         <v>9</v>
       </c>
       <c r="G147" t="s">
+        <v>850</v>
+      </c>
+      <c r="H147" t="s">
         <v>851</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>852</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>853</v>
-      </c>
-      <c r="J147" t="s">
-        <v>854</v>
       </c>
       <c r="K147" t="s">
         <v>34</v>
@@ -13013,12 +13013,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
+        <v>854</v>
+      </c>
+      <c r="B148" t="s">
         <v>855</v>
-      </c>
-      <c r="B148" t="s">
-        <v>856</v>
       </c>
       <c r="C148">
         <v>2016</v>
@@ -13030,28 +13030,28 @@
         <v>181</v>
       </c>
       <c r="G148" t="s">
+        <v>856</v>
+      </c>
+      <c r="H148" t="s">
         <v>857</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>858</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>859</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
+        <v>34</v>
+      </c>
+      <c r="M148" t="s">
+        <v>34</v>
+      </c>
+      <c r="O148" t="s">
+        <v>42</v>
+      </c>
+      <c r="X148" t="s">
         <v>860</v>
-      </c>
-      <c r="K148" t="s">
-        <v>34</v>
-      </c>
-      <c r="M148" t="s">
-        <v>34</v>
-      </c>
-      <c r="O148" t="s">
-        <v>42</v>
-      </c>
-      <c r="X148" t="s">
-        <v>861</v>
       </c>
       <c r="Y148" t="s">
         <v>68</v>
@@ -13060,12 +13060,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
+        <v>861</v>
+      </c>
+      <c r="B149" t="s">
         <v>862</v>
-      </c>
-      <c r="B149" t="s">
-        <v>863</v>
       </c>
       <c r="C149">
         <v>2016</v>
@@ -13077,16 +13077,16 @@
         <v>117</v>
       </c>
       <c r="G149" t="s">
+        <v>863</v>
+      </c>
+      <c r="H149" t="s">
         <v>864</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>865</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>866</v>
-      </c>
-      <c r="J149" t="s">
-        <v>867</v>
       </c>
       <c r="K149" t="s">
         <v>34</v>
@@ -13104,12 +13104,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
+        <v>867</v>
+      </c>
+      <c r="B150" t="s">
         <v>868</v>
-      </c>
-      <c r="B150" t="s">
-        <v>869</v>
       </c>
       <c r="C150">
         <v>2016</v>
@@ -13121,28 +13121,28 @@
         <v>180</v>
       </c>
       <c r="G150" t="s">
+        <v>869</v>
+      </c>
+      <c r="H150" t="s">
         <v>870</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>871</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>872</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" t="s">
+        <v>34</v>
+      </c>
+      <c r="O150" t="s">
+        <v>42</v>
+      </c>
+      <c r="X150" t="s">
         <v>873</v>
-      </c>
-      <c r="K150" t="s">
-        <v>34</v>
-      </c>
-      <c r="M150" t="s">
-        <v>34</v>
-      </c>
-      <c r="O150" t="s">
-        <v>42</v>
-      </c>
-      <c r="X150" t="s">
-        <v>874</v>
       </c>
       <c r="Y150" t="s">
         <v>40</v>
@@ -13151,12 +13151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="C151" s="2">
         <v>2016</v>
@@ -13171,16 +13171,16 @@
         <v>7</v>
       </c>
       <c r="G151" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>34</v>
@@ -13198,12 +13198,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="C152" s="2">
         <v>2016</v>
@@ -13215,16 +13215,16 @@
         <v>116</v>
       </c>
       <c r="G152" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>34</v>
@@ -13239,7 +13239,7 @@
         <v>35</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R152" s="3" t="s">
         <v>42</v>
@@ -13252,7 +13252,7 @@
         <v>35</v>
       </c>
       <c r="V152" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="W152" s="2" t="s">
         <v>42</v>
@@ -13267,15 +13267,15 @@
         <v>1</v>
       </c>
       <c r="AB152" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
+        <v>888</v>
+      </c>
+      <c r="B153" t="s">
         <v>889</v>
-      </c>
-      <c r="B153" t="s">
-        <v>890</v>
       </c>
       <c r="C153">
         <v>2016</v>
@@ -13290,16 +13290,16 @@
         <v>6</v>
       </c>
       <c r="G153" t="s">
+        <v>890</v>
+      </c>
+      <c r="H153" t="s">
         <v>891</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>892</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>893</v>
-      </c>
-      <c r="J153" t="s">
-        <v>894</v>
       </c>
       <c r="K153" t="s">
         <v>34</v>
@@ -13317,12 +13317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
+        <v>894</v>
+      </c>
+      <c r="B154" t="s">
         <v>895</v>
-      </c>
-      <c r="B154" t="s">
-        <v>896</v>
       </c>
       <c r="C154">
         <v>2016</v>
@@ -13337,16 +13337,16 @@
         <v>6</v>
       </c>
       <c r="G154" t="s">
+        <v>896</v>
+      </c>
+      <c r="H154" t="s">
         <v>897</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>898</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>899</v>
-      </c>
-      <c r="J154" t="s">
-        <v>900</v>
       </c>
       <c r="K154" t="s">
         <v>34</v>
@@ -13361,19 +13361,19 @@
         <v>52</v>
       </c>
       <c r="Q154" t="s">
+        <v>900</v>
+      </c>
+      <c r="R154" t="s">
+        <v>42</v>
+      </c>
+      <c r="T154" t="s">
+        <v>42</v>
+      </c>
+      <c r="W154" t="s">
+        <v>42</v>
+      </c>
+      <c r="X154" t="s">
         <v>901</v>
-      </c>
-      <c r="R154" t="s">
-        <v>42</v>
-      </c>
-      <c r="T154" t="s">
-        <v>42</v>
-      </c>
-      <c r="W154" t="s">
-        <v>42</v>
-      </c>
-      <c r="X154" t="s">
-        <v>902</v>
       </c>
       <c r="Y154" t="s">
         <v>68</v>
@@ -13385,12 +13385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="C155" s="2">
         <v>2016</v>
@@ -13405,16 +13405,16 @@
         <v>3</v>
       </c>
       <c r="G155" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>34</v>
@@ -13432,12 +13432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>909</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>910</v>
       </c>
       <c r="C156" s="2">
         <v>2016</v>
@@ -13452,13 +13452,13 @@
         <v>262</v>
       </c>
       <c r="H156" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>34</v>
@@ -13476,12 +13476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="C157" s="2">
         <v>2016</v>
@@ -13496,16 +13496,16 @@
         <v>5</v>
       </c>
       <c r="G157" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="I157" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>34</v>
@@ -13520,7 +13520,7 @@
         <v>35</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="R157" s="3" t="s">
         <v>42</v>
@@ -13545,15 +13545,15 @@
         <v>1</v>
       </c>
       <c r="AB157" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="C158" s="2">
         <v>2016</v>
@@ -13568,16 +13568,16 @@
         <v>5</v>
       </c>
       <c r="G158" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="J158" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>34</v>
@@ -13595,12 +13595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
+        <v>926</v>
+      </c>
+      <c r="B159" t="s">
         <v>927</v>
-      </c>
-      <c r="B159" t="s">
-        <v>928</v>
       </c>
       <c r="C159">
         <v>2016</v>
@@ -13615,16 +13615,16 @@
         <v>5</v>
       </c>
       <c r="G159" t="s">
+        <v>928</v>
+      </c>
+      <c r="H159" t="s">
         <v>929</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>930</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>931</v>
-      </c>
-      <c r="J159" t="s">
-        <v>932</v>
       </c>
       <c r="K159" t="s">
         <v>34</v>
@@ -13639,13 +13639,13 @@
         <v>52</v>
       </c>
       <c r="Q159" t="s">
+        <v>932</v>
+      </c>
+      <c r="R159" t="s">
+        <v>34</v>
+      </c>
+      <c r="S159" t="s">
         <v>933</v>
-      </c>
-      <c r="R159" t="s">
-        <v>34</v>
-      </c>
-      <c r="S159" t="s">
-        <v>934</v>
       </c>
       <c r="T159" t="s">
         <v>42</v>
@@ -13663,12 +13663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
+        <v>934</v>
+      </c>
+      <c r="B160" t="s">
         <v>935</v>
-      </c>
-      <c r="B160" t="s">
-        <v>936</v>
       </c>
       <c r="C160">
         <v>2016</v>
@@ -13680,16 +13680,16 @@
         <v>114</v>
       </c>
       <c r="G160" t="s">
+        <v>936</v>
+      </c>
+      <c r="H160" t="s">
         <v>937</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>938</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>939</v>
-      </c>
-      <c r="J160" t="s">
-        <v>940</v>
       </c>
       <c r="K160" t="s">
         <v>34</v>
@@ -13707,12 +13707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
+        <v>940</v>
+      </c>
+      <c r="B161" t="s">
         <v>941</v>
-      </c>
-      <c r="B161" t="s">
-        <v>942</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -13727,16 +13727,16 @@
         <v>1</v>
       </c>
       <c r="G161" t="s">
+        <v>942</v>
+      </c>
+      <c r="H161" t="s">
         <v>943</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>944</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>945</v>
-      </c>
-      <c r="J161" t="s">
-        <v>946</v>
       </c>
       <c r="K161" t="s">
         <v>34</v>
@@ -13751,13 +13751,13 @@
         <v>35</v>
       </c>
       <c r="Q161" t="s">
+        <v>946</v>
+      </c>
+      <c r="R161" t="s">
+        <v>34</v>
+      </c>
+      <c r="S161" t="s">
         <v>947</v>
-      </c>
-      <c r="R161" t="s">
-        <v>34</v>
-      </c>
-      <c r="S161" t="s">
-        <v>948</v>
       </c>
       <c r="T161" t="s">
         <v>34</v>
@@ -13766,7 +13766,7 @@
         <v>35</v>
       </c>
       <c r="V161" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="W161" t="s">
         <v>42</v>
@@ -13781,12 +13781,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="C162" s="2">
         <v>2016</v>
@@ -13798,16 +13798,16 @@
         <v>112</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="I162" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="J162" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>34</v>
@@ -13822,7 +13822,7 @@
         <v>52</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>42</v>
@@ -13843,12 +13843,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
+        <v>956</v>
+      </c>
+      <c r="B163" t="s">
         <v>957</v>
-      </c>
-      <c r="B163" t="s">
-        <v>958</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -13863,25 +13863,25 @@
         <v>1823</v>
       </c>
       <c r="H163" t="s">
+        <v>958</v>
+      </c>
+      <c r="I163" t="s">
         <v>959</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>960</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163" t="s">
+        <v>34</v>
+      </c>
+      <c r="O163" t="s">
+        <v>42</v>
+      </c>
+      <c r="X163" t="s">
         <v>961</v>
-      </c>
-      <c r="K163" t="s">
-        <v>34</v>
-      </c>
-      <c r="M163" t="s">
-        <v>34</v>
-      </c>
-      <c r="O163" t="s">
-        <v>42</v>
-      </c>
-      <c r="X163" t="s">
-        <v>962</v>
       </c>
       <c r="Y163" t="s">
         <v>40</v>
@@ -13890,12 +13890,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
+        <v>962</v>
+      </c>
+      <c r="B164" t="s">
         <v>963</v>
-      </c>
-      <c r="B164" t="s">
-        <v>964</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -13910,16 +13910,16 @@
         <v>13</v>
       </c>
       <c r="G164" t="s">
+        <v>964</v>
+      </c>
+      <c r="H164" t="s">
         <v>965</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>966</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>967</v>
-      </c>
-      <c r="J164" t="s">
-        <v>968</v>
       </c>
       <c r="K164" t="s">
         <v>34</v>
@@ -13934,19 +13934,19 @@
         <v>35</v>
       </c>
       <c r="Q164" t="s">
+        <v>968</v>
+      </c>
+      <c r="R164" t="s">
+        <v>42</v>
+      </c>
+      <c r="T164" t="s">
+        <v>42</v>
+      </c>
+      <c r="W164" t="s">
+        <v>42</v>
+      </c>
+      <c r="X164" t="s">
         <v>969</v>
-      </c>
-      <c r="R164" t="s">
-        <v>42</v>
-      </c>
-      <c r="T164" t="s">
-        <v>42</v>
-      </c>
-      <c r="W164" t="s">
-        <v>42</v>
-      </c>
-      <c r="X164" t="s">
-        <v>970</v>
       </c>
       <c r="Y164" t="s">
         <v>68</v>
@@ -13958,12 +13958,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A165" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>971</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>972</v>
       </c>
       <c r="C165" s="6">
         <v>2016</v>
@@ -13978,16 +13978,16 @@
         <v>13</v>
       </c>
       <c r="G165" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="H165" s="6" t="s">
         <v>973</v>
       </c>
-      <c r="H165" s="6" t="s">
+      <c r="I165" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="I165" s="6" t="s">
+      <c r="J165" s="6" t="s">
         <v>975</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>976</v>
       </c>
       <c r="K165" s="6" t="s">
         <v>34</v>
@@ -14002,22 +14002,22 @@
         <v>52</v>
       </c>
       <c r="Q165" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="R165" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="R165" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S165" s="6" t="s">
+      <c r="T165" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W165" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X165" s="6" t="s">
         <v>978</v>
-      </c>
-      <c r="T165" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W165" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X165" s="6" t="s">
-        <v>979</v>
       </c>
       <c r="Y165" s="6" t="s">
         <v>40</v>
@@ -14029,15 +14029,15 @@
         <v>1</v>
       </c>
       <c r="AB165" s="5" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
+        <v>979</v>
+      </c>
+      <c r="B166" t="s">
         <v>980</v>
-      </c>
-      <c r="B166" t="s">
-        <v>981</v>
       </c>
       <c r="C166">
         <v>2016</v>
@@ -14052,16 +14052,16 @@
         <v>13</v>
       </c>
       <c r="G166" t="s">
+        <v>981</v>
+      </c>
+      <c r="H166" t="s">
         <v>982</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>983</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>984</v>
-      </c>
-      <c r="J166" t="s">
-        <v>985</v>
       </c>
       <c r="K166" t="s">
         <v>34</v>
@@ -14079,12 +14079,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
+        <v>985</v>
+      </c>
+      <c r="B167" t="s">
         <v>986</v>
-      </c>
-      <c r="B167" t="s">
-        <v>987</v>
       </c>
       <c r="C167">
         <v>2016</v>
@@ -14099,28 +14099,28 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
+        <v>987</v>
+      </c>
+      <c r="H167" t="s">
         <v>988</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>989</v>
       </c>
-      <c r="I167" t="s">
+      <c r="J167" t="s">
         <v>990</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167" t="s">
+        <v>34</v>
+      </c>
+      <c r="O167" t="s">
+        <v>42</v>
+      </c>
+      <c r="X167" t="s">
         <v>991</v>
-      </c>
-      <c r="K167" t="s">
-        <v>34</v>
-      </c>
-      <c r="M167" t="s">
-        <v>34</v>
-      </c>
-      <c r="O167" t="s">
-        <v>42</v>
-      </c>
-      <c r="X167" t="s">
-        <v>992</v>
       </c>
       <c r="Y167" t="s">
         <v>68</v>
@@ -14129,12 +14129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
+        <v>992</v>
+      </c>
+      <c r="B168" t="s">
         <v>993</v>
-      </c>
-      <c r="B168" t="s">
-        <v>994</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -14149,28 +14149,28 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
+        <v>994</v>
+      </c>
+      <c r="H168" t="s">
         <v>995</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>996</v>
       </c>
-      <c r="I168" t="s">
+      <c r="J168" t="s">
         <v>997</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
+        <v>34</v>
+      </c>
+      <c r="M168" t="s">
+        <v>34</v>
+      </c>
+      <c r="O168" t="s">
+        <v>42</v>
+      </c>
+      <c r="X168" t="s">
         <v>998</v>
-      </c>
-      <c r="K168" t="s">
-        <v>34</v>
-      </c>
-      <c r="M168" t="s">
-        <v>34</v>
-      </c>
-      <c r="O168" t="s">
-        <v>42</v>
-      </c>
-      <c r="X168" t="s">
-        <v>999</v>
       </c>
       <c r="Y168" t="s">
         <v>40</v>
@@ -14179,12 +14179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="C169" s="2">
         <v>2016</v>
@@ -14199,16 +14199,16 @@
         <v>3</v>
       </c>
       <c r="G169" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="H169" s="2" t="s">
+      <c r="I169" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="J169" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>34</v>
@@ -14223,13 +14223,13 @@
         <v>35</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>42</v>
@@ -14247,15 +14247,15 @@
         <v>1</v>
       </c>
       <c r="AB169" s="2" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B170" t="s">
         <v>1007</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1008</v>
       </c>
       <c r="C170">
         <v>2016</v>
@@ -14270,16 +14270,16 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H170" t="s">
         <v>1009</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>1010</v>
       </c>
-      <c r="I170" t="s">
+      <c r="J170" t="s">
         <v>1011</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1012</v>
       </c>
       <c r="K170" t="s">
         <v>34</v>
@@ -14294,13 +14294,13 @@
         <v>35</v>
       </c>
       <c r="Q170" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S170" t="s">
         <v>1013</v>
-      </c>
-      <c r="R170" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S170" t="s">
-        <v>1014</v>
       </c>
       <c r="T170" t="s">
         <v>34</v>
@@ -14309,7 +14309,7 @@
         <v>35</v>
       </c>
       <c r="V170" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="W170" t="s">
         <v>42</v>
@@ -14324,15 +14324,15 @@
         <v>1</v>
       </c>
       <c r="AB170" s="2" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B171" t="s">
         <v>1016</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1017</v>
       </c>
       <c r="C171">
         <v>2016</v>
@@ -14347,22 +14347,22 @@
         <v>13</v>
       </c>
       <c r="G171" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H171" t="s">
         <v>1018</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>1019</v>
       </c>
-      <c r="I171" t="s">
+      <c r="K171" t="s">
+        <v>34</v>
+      </c>
+      <c r="M171" t="s">
+        <v>42</v>
+      </c>
+      <c r="N171" t="s">
         <v>1020</v>
-      </c>
-      <c r="K171" t="s">
-        <v>34</v>
-      </c>
-      <c r="M171" t="s">
-        <v>42</v>
-      </c>
-      <c r="N171" t="s">
-        <v>1021</v>
       </c>
       <c r="Y171" t="s">
         <v>68</v>
@@ -14371,12 +14371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B172" t="s">
         <v>1022</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1023</v>
       </c>
       <c r="C172">
         <v>2015</v>
@@ -14388,16 +14388,16 @@
         <v>110</v>
       </c>
       <c r="G172" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H172" t="s">
         <v>1024</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>1025</v>
       </c>
-      <c r="I172" t="s">
+      <c r="J172" t="s">
         <v>1026</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1027</v>
       </c>
       <c r="K172" t="s">
         <v>34</v>
@@ -14412,13 +14412,13 @@
         <v>52</v>
       </c>
       <c r="Q172" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R172" t="s">
+        <v>34</v>
+      </c>
+      <c r="S172" t="s">
         <v>1028</v>
-      </c>
-      <c r="R172" t="s">
-        <v>34</v>
-      </c>
-      <c r="S172" t="s">
-        <v>1029</v>
       </c>
       <c r="T172" t="s">
         <v>42</v>
@@ -14436,15 +14436,15 @@
         <v>1</v>
       </c>
       <c r="AB172" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B173" t="s">
         <v>1030</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1031</v>
       </c>
       <c r="C173">
         <v>2015</v>
@@ -14459,13 +14459,13 @@
         <v>1819</v>
       </c>
       <c r="H173" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I173" t="s">
         <v>1032</v>
       </c>
-      <c r="I173" t="s">
+      <c r="J173" t="s">
         <v>1033</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1034</v>
       </c>
       <c r="K173" t="s">
         <v>34</v>
@@ -14480,7 +14480,7 @@
         <v>35</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="R173" t="s">
         <v>42</v>
@@ -14501,15 +14501,15 @@
         <v>1</v>
       </c>
       <c r="AB173" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B174" t="s">
         <v>1035</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1036</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -14524,25 +14524,25 @@
         <v>10</v>
       </c>
       <c r="H174" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I174" t="s">
         <v>1037</v>
       </c>
-      <c r="I174" t="s">
+      <c r="J174" t="s">
         <v>1038</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O174" t="s">
+        <v>42</v>
+      </c>
+      <c r="X174" t="s">
         <v>1039</v>
-      </c>
-      <c r="K174" t="s">
-        <v>34</v>
-      </c>
-      <c r="M174" t="s">
-        <v>34</v>
-      </c>
-      <c r="O174" t="s">
-        <v>42</v>
-      </c>
-      <c r="X174" t="s">
-        <v>1040</v>
       </c>
       <c r="Y174" t="s">
         <v>40</v>
@@ -14551,12 +14551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B175" t="s">
         <v>1041</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1042</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -14571,16 +14571,16 @@
         <v>5</v>
       </c>
       <c r="G175" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H175" t="s">
         <v>1043</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>1044</v>
       </c>
-      <c r="I175" t="s">
+      <c r="J175" t="s">
         <v>1045</v>
-      </c>
-      <c r="J175" t="s">
-        <v>1046</v>
       </c>
       <c r="K175" t="s">
         <v>34</v>
@@ -14595,7 +14595,7 @@
         <v>35</v>
       </c>
       <c r="Q175" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R175" t="s">
         <v>42</v>
@@ -14610,7 +14610,7 @@
         <v>34</v>
       </c>
       <c r="X175" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Y175" t="s">
         <v>68</v>
@@ -14622,12 +14622,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B176" t="s">
         <v>1049</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1050</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -14642,16 +14642,16 @@
         <v>8</v>
       </c>
       <c r="G176" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H176" t="s">
         <v>1051</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>1052</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>1053</v>
-      </c>
-      <c r="J176" t="s">
-        <v>1054</v>
       </c>
       <c r="K176" t="s">
         <v>34</v>
@@ -14666,13 +14666,13 @@
         <v>35</v>
       </c>
       <c r="Q176" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R176" t="s">
+        <v>34</v>
+      </c>
+      <c r="S176" t="s">
         <v>1055</v>
-      </c>
-      <c r="R176" t="s">
-        <v>34</v>
-      </c>
-      <c r="S176" t="s">
-        <v>1056</v>
       </c>
       <c r="T176" t="s">
         <v>42</v>
@@ -14690,12 +14690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B177" t="s">
         <v>1057</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1058</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -14710,16 +14710,16 @@
         <v>4</v>
       </c>
       <c r="G177" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H177" t="s">
         <v>1059</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>1060</v>
       </c>
-      <c r="I177" t="s">
+      <c r="J177" t="s">
         <v>1061</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1062</v>
       </c>
       <c r="K177" t="s">
         <v>34</v>
@@ -14734,13 +14734,13 @@
         <v>35</v>
       </c>
       <c r="Q177" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S177" t="s">
         <v>1063</v>
-      </c>
-      <c r="R177" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S177" t="s">
-        <v>1064</v>
       </c>
       <c r="T177" t="s">
         <v>34</v>
@@ -14749,7 +14749,7 @@
         <v>35</v>
       </c>
       <c r="V177" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="W177" t="s">
         <v>34</v>
@@ -14764,15 +14764,15 @@
         <v>1</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B178" t="s">
         <v>1066</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1067</v>
       </c>
       <c r="C178">
         <v>2015</v>
@@ -14787,16 +14787,16 @@
         <v>4</v>
       </c>
       <c r="G178" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H178" t="s">
         <v>1068</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>1069</v>
       </c>
-      <c r="I178" t="s">
+      <c r="J178" t="s">
         <v>1070</v>
-      </c>
-      <c r="J178" t="s">
-        <v>1071</v>
       </c>
       <c r="K178" t="s">
         <v>34</v>
@@ -14817,12 +14817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="C179" s="2">
         <v>2015</v>
@@ -14834,16 +14834,16 @@
         <v>105</v>
       </c>
       <c r="G179" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="I179" s="2" t="s">
+      <c r="J179" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>34</v>
@@ -14861,12 +14861,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B180" t="s">
         <v>1077</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1078</v>
       </c>
       <c r="C180">
         <v>2015</v>
@@ -14881,13 +14881,13 @@
         <v>1809</v>
       </c>
       <c r="H180" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I180" t="s">
         <v>1079</v>
       </c>
-      <c r="I180" t="s">
+      <c r="J180" t="s">
         <v>1080</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1081</v>
       </c>
       <c r="K180" t="s">
         <v>34</v>
@@ -14902,13 +14902,13 @@
         <v>35</v>
       </c>
       <c r="Q180" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S180" t="s">
         <v>1082</v>
-      </c>
-      <c r="R180" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S180" t="s">
-        <v>1083</v>
       </c>
       <c r="T180" t="s">
         <v>34</v>
@@ -14917,7 +14917,7 @@
         <v>35</v>
       </c>
       <c r="V180" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W180" t="s">
         <v>34</v>
@@ -14932,15 +14932,15 @@
         <v>1</v>
       </c>
       <c r="AB180" s="2" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B181" t="s">
         <v>1085</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1086</v>
       </c>
       <c r="C181">
         <v>2015</v>
@@ -14955,13 +14955,13 @@
         <v>6</v>
       </c>
       <c r="H181" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I181" t="s">
         <v>1087</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>1088</v>
-      </c>
-      <c r="J181" t="s">
-        <v>1089</v>
       </c>
       <c r="K181" t="s">
         <v>34</v>
@@ -14979,12 +14979,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="C182" s="2">
         <v>2015</v>
@@ -14996,16 +14996,16 @@
         <v>115</v>
       </c>
       <c r="G182" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="H182" s="2" t="s">
+      <c r="I182" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="J182" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>34</v>
@@ -15023,12 +15023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B183" t="s">
         <v>1096</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1097</v>
       </c>
       <c r="C183">
         <v>2015</v>
@@ -15040,28 +15040,28 @@
         <v>167</v>
       </c>
       <c r="G183" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H183" t="s">
         <v>1098</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>1099</v>
       </c>
-      <c r="I183" t="s">
+      <c r="J183" t="s">
         <v>1100</v>
       </c>
-      <c r="J183" t="s">
+      <c r="K183" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183" t="s">
+        <v>34</v>
+      </c>
+      <c r="O183" t="s">
+        <v>42</v>
+      </c>
+      <c r="X183" t="s">
         <v>1101</v>
-      </c>
-      <c r="K183" t="s">
-        <v>34</v>
-      </c>
-      <c r="M183" t="s">
-        <v>34</v>
-      </c>
-      <c r="O183" t="s">
-        <v>42</v>
-      </c>
-      <c r="X183" t="s">
-        <v>1102</v>
       </c>
       <c r="Y183" t="s">
         <v>68</v>
@@ -15070,12 +15070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B184" t="s">
         <v>1103</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1104</v>
       </c>
       <c r="C184">
         <v>2015</v>
@@ -15090,16 +15090,16 @@
         <v>6</v>
       </c>
       <c r="G184" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H184" t="s">
         <v>1105</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>1106</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>1107</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1108</v>
       </c>
       <c r="K184" t="s">
         <v>34</v>
@@ -15114,22 +15114,22 @@
         <v>35</v>
       </c>
       <c r="Q184" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R184" t="s">
+        <v>34</v>
+      </c>
+      <c r="S184" t="s">
+        <v>1108</v>
+      </c>
+      <c r="T184" t="s">
+        <v>42</v>
+      </c>
+      <c r="W184" t="s">
+        <v>42</v>
+      </c>
+      <c r="X184" t="s">
         <v>1109</v>
-      </c>
-      <c r="R184" t="s">
-        <v>34</v>
-      </c>
-      <c r="S184" t="s">
-        <v>1109</v>
-      </c>
-      <c r="T184" t="s">
-        <v>42</v>
-      </c>
-      <c r="W184" t="s">
-        <v>42</v>
-      </c>
-      <c r="X184" t="s">
-        <v>1110</v>
       </c>
       <c r="Y184" t="s">
         <v>68</v>
@@ -15141,12 +15141,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B185" t="s">
         <v>1111</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1112</v>
       </c>
       <c r="C185">
         <v>2015</v>
@@ -15161,16 +15161,16 @@
         <v>3</v>
       </c>
       <c r="G185" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H185" t="s">
         <v>1113</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>1114</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>1115</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1116</v>
       </c>
       <c r="K185" t="s">
         <v>34</v>
@@ -15185,22 +15185,22 @@
         <v>52</v>
       </c>
       <c r="Q185" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R185" t="s">
+        <v>34</v>
+      </c>
+      <c r="S185" t="s">
         <v>1117</v>
       </c>
-      <c r="R185" t="s">
-        <v>34</v>
-      </c>
-      <c r="S185" t="s">
+      <c r="T185" t="s">
+        <v>42</v>
+      </c>
+      <c r="W185" t="s">
+        <v>42</v>
+      </c>
+      <c r="X185" t="s">
         <v>1118</v>
-      </c>
-      <c r="T185" t="s">
-        <v>42</v>
-      </c>
-      <c r="W185" t="s">
-        <v>42</v>
-      </c>
-      <c r="X185" t="s">
-        <v>1119</v>
       </c>
       <c r="Y185" t="s">
         <v>40</v>
@@ -15212,12 +15212,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B186" t="s">
         <v>1120</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1121</v>
       </c>
       <c r="C186">
         <v>2015</v>
@@ -15232,16 +15232,16 @@
         <v>2</v>
       </c>
       <c r="G186" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H186" t="s">
         <v>1122</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>1123</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>1124</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1125</v>
       </c>
       <c r="K186" t="s">
         <v>34</v>
@@ -15256,13 +15256,13 @@
         <v>35</v>
       </c>
       <c r="Q186" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R186" t="s">
+        <v>34</v>
+      </c>
+      <c r="S186" t="s">
         <v>1126</v>
-      </c>
-      <c r="R186" t="s">
-        <v>34</v>
-      </c>
-      <c r="S186" t="s">
-        <v>1127</v>
       </c>
       <c r="T186" t="s">
         <v>42</v>
@@ -15280,15 +15280,15 @@
         <v>1</v>
       </c>
       <c r="AB186" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="C187" s="2">
         <v>2015</v>
@@ -15300,16 +15300,16 @@
         <v>101</v>
       </c>
       <c r="G187" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H187" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="I187" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="J187" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>34</v>
@@ -15324,7 +15324,7 @@
         <v>35</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R187" s="2" t="s">
         <v>42</v>
@@ -15336,13 +15336,13 @@
         <v>35</v>
       </c>
       <c r="V187" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="W187" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="W187" s="2" t="s">
+      <c r="X187" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="X187" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="Y187" s="2" t="s">
         <v>44</v>
@@ -15354,12 +15354,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B188" t="s">
         <v>1137</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1138</v>
       </c>
       <c r="C188">
         <v>2015</v>
@@ -15371,28 +15371,28 @@
         <v>111</v>
       </c>
       <c r="G188" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H188" t="s">
         <v>1139</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>1140</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>1141</v>
       </c>
-      <c r="J188" t="s">
+      <c r="K188" t="s">
+        <v>34</v>
+      </c>
+      <c r="M188" t="s">
+        <v>34</v>
+      </c>
+      <c r="O188" t="s">
+        <v>42</v>
+      </c>
+      <c r="X188" t="s">
         <v>1142</v>
-      </c>
-      <c r="K188" t="s">
-        <v>34</v>
-      </c>
-      <c r="M188" t="s">
-        <v>34</v>
-      </c>
-      <c r="O188" t="s">
-        <v>42</v>
-      </c>
-      <c r="X188" t="s">
-        <v>1143</v>
       </c>
       <c r="Y188" t="s">
         <v>68</v>
@@ -15401,12 +15401,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>1144</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>1145</v>
       </c>
       <c r="C189" s="2">
         <v>2015</v>
@@ -15424,22 +15424,22 @@
         <v>209</v>
       </c>
       <c r="H189" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I189" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="J189" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="K189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N189" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="K189" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M189" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="Y189" s="2" t="s">
         <v>44</v>
@@ -15448,12 +15448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B190" t="s">
         <v>1150</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1151</v>
       </c>
       <c r="C190">
         <v>2015</v>
@@ -15468,28 +15468,28 @@
         <v>2</v>
       </c>
       <c r="G190" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H190" t="s">
         <v>1152</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>1153</v>
       </c>
-      <c r="I190" t="s">
+      <c r="J190" t="s">
         <v>1154</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K190" t="s">
+        <v>34</v>
+      </c>
+      <c r="M190" t="s">
+        <v>34</v>
+      </c>
+      <c r="O190" t="s">
+        <v>42</v>
+      </c>
+      <c r="X190" t="s">
         <v>1155</v>
-      </c>
-      <c r="K190" t="s">
-        <v>34</v>
-      </c>
-      <c r="M190" t="s">
-        <v>34</v>
-      </c>
-      <c r="O190" t="s">
-        <v>42</v>
-      </c>
-      <c r="X190" t="s">
-        <v>1156</v>
       </c>
       <c r="Y190" t="s">
         <v>68</v>
@@ -15498,12 +15498,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B191" t="s">
         <v>1157</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1158</v>
       </c>
       <c r="C191">
         <v>2015</v>
@@ -15518,16 +15518,16 @@
         <v>1</v>
       </c>
       <c r="G191" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H191" t="s">
         <v>1159</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>1160</v>
       </c>
-      <c r="I191" t="s">
+      <c r="J191" t="s">
         <v>1161</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1162</v>
       </c>
       <c r="K191" t="s">
         <v>34</v>
@@ -15542,7 +15542,7 @@
         <v>35</v>
       </c>
       <c r="Q191" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R191" t="s">
         <v>42</v>
@@ -15563,15 +15563,15 @@
         <v>1</v>
       </c>
       <c r="AB191" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B192" t="s">
         <v>1164</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1165</v>
       </c>
       <c r="C192">
         <v>2015</v>
@@ -15583,16 +15583,16 @@
         <v>110</v>
       </c>
       <c r="G192" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H192" t="s">
         <v>1166</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>1167</v>
       </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>1168</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1169</v>
       </c>
       <c r="K192" t="s">
         <v>34</v>
@@ -15613,12 +15613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="C193" s="2">
         <v>2015</v>
@@ -15630,16 +15630,16 @@
         <v>99</v>
       </c>
       <c r="G193" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H193" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="I193" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="I193" s="2" t="s">
+      <c r="J193" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>34</v>
@@ -15657,12 +15657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="C194" s="2">
         <v>2015</v>
@@ -15677,16 +15677,16 @@
         <v>1</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H194" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="H194" s="2" t="s">
+      <c r="I194" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="J194" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>34</v>
@@ -15701,7 +15701,7 @@
         <v>35</v>
       </c>
       <c r="Q194" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="R194" s="3" t="s">
         <v>42</v>
@@ -15723,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="AB194" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
